--- a/lda_result_names.xlsx
+++ b/lda_result_names.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C746"/>
+  <dimension ref="A1:C745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.3221317149274833</v>
+        <v>0.3000755069355374</v>
       </c>
     </row>
     <row r="2">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2896675193838678</v>
+        <v>0.2765550338030103</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4915197934746731</v>
+        <v>0.6040079537323962</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2287745696892565</v>
+        <v>0.2457165858668967</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4132057635299666</v>
+        <v>0.5063495626767495</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4201034885420364</v>
+        <v>0.3844641033384397</v>
       </c>
     </row>
     <row r="7">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3398849629162594</v>
+        <v>0.2828200398231462</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.325336516412141</v>
+        <v>0.3024756708990386</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5573465258270931</v>
+        <v>0.5130678182476316</v>
       </c>
     </row>
     <row r="10">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6851722455195278</v>
+        <v>0.7002869694454211</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.653113591024811</v>
+        <v>0.6297295974499589</v>
       </c>
     </row>
     <row r="12">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3983370541455808</v>
+        <v>0.4071553505191044</v>
       </c>
     </row>
     <row r="13">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3207933563932686</v>
+        <v>0.3185593852887845</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4922282308713092</v>
+        <v>0.4568959601339463</v>
       </c>
     </row>
     <row r="15">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5813908358160742</v>
+        <v>0.5854157545420807</v>
       </c>
     </row>
     <row r="16">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6685074992404219</v>
+        <v>0.6482769699079182</v>
       </c>
     </row>
     <row r="17">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.475094183643569</v>
+        <v>0.387458027356458</v>
       </c>
     </row>
     <row r="18">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6175909101953593</v>
+        <v>0.4732963247407045</v>
       </c>
     </row>
     <row r="19">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6068823421064051</v>
+        <v>0.5631347051036377</v>
       </c>
     </row>
     <row r="20">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4060550216274186</v>
+        <v>0.3054993017106717</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.224743929934076</v>
+        <v>0.220488218677273</v>
       </c>
     </row>
     <row r="22">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2646354154469322</v>
+        <v>0.2718175988006002</v>
       </c>
     </row>
     <row r="23">
@@ -717,12 +717,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2625538266111137</v>
+        <v>0.2315194411252818</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -730,20 +730,20 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3734531708021923</v>
+        <v>0.4880079999128154</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Strategies-for-Decomposing-an-Application-into-Services-Manning_full.txt</t>
+          <t>txtfiles\category_1_folder\message-queues-Noise_full.txt</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6618166434742607</v>
+        <v>0.7968958739946674</v>
       </c>
     </row>
     <row r="26">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.552588803741931</v>
+        <v>0.5599241787053176</v>
       </c>
     </row>
     <row r="27">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.184086026679325</v>
+        <v>0.2017663061770458</v>
       </c>
     </row>
     <row r="28">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3530415122731386</v>
+        <v>0.3529665235908444</v>
       </c>
     </row>
     <row r="29">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2884024968893754</v>
+        <v>0.2795698593461329</v>
       </c>
     </row>
     <row r="30">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6012298251286137</v>
+        <v>0.5880568260224815</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4308762014717697</v>
+        <v>0.4004169905335535</v>
       </c>
     </row>
     <row r="32">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7003967877275553</v>
+        <v>0.704042552287821</v>
       </c>
     </row>
     <row r="33">
@@ -847,20 +847,20 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4959735589293753</v>
+        <v>0.5744779919246465</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What is synchronous_asynchronous API - Definition from WhatIs.com_full.txt</t>
+          <t>txtfiles\category_1_folder\Which-messaging-queue-is-best-Ravindra-Naik_full.txt</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2900051534604409</v>
+        <v>0.3913175117948021</v>
       </c>
     </row>
     <row r="35">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3421531440803078</v>
+        <v>0.3436039996605162</v>
       </c>
     </row>
     <row r="36">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.320284668179356</v>
+        <v>0.3149308342225225</v>
       </c>
     </row>
     <row r="37">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3161674041303853</v>
+        <v>0.3116570145381422</v>
       </c>
     </row>
     <row r="38">
@@ -912,12 +912,12 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3666192342353278</v>
+        <v>0.3637030904690043</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1841548130236921</v>
+        <v>0.1912471307122026</v>
       </c>
     </row>
     <row r="40">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3057768555728741</v>
+        <v>0.3236169918276049</v>
       </c>
     </row>
     <row r="41">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5215023144225653</v>
+        <v>0.4964252516688753</v>
       </c>
     </row>
     <row r="42">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6757763925600182</v>
+        <v>0.6831015110454114</v>
       </c>
     </row>
     <row r="43">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7711550215309513</v>
+        <v>0.7552595324759405</v>
       </c>
     </row>
     <row r="44">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5158826784255814</v>
+        <v>0.5032144242803427</v>
       </c>
     </row>
     <row r="45">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.3491602972490137</v>
+        <v>0.3678780408512939</v>
       </c>
     </row>
     <row r="46">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2868025535983413</v>
+        <v>0.2887807304693309</v>
       </c>
     </row>
     <row r="47">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.3169269097509091</v>
+        <v>0.3296652309875249</v>
       </c>
     </row>
     <row r="48">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.6673265807477898</v>
+        <v>0.5675925788305236</v>
       </c>
     </row>
     <row r="49">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.5362873221038779</v>
+        <v>0.5447438264590261</v>
       </c>
     </row>
     <row r="50">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.391455237314122</v>
+        <v>0.3791142084035258</v>
       </c>
     </row>
     <row r="51">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.7194632985538802</v>
+        <v>0.7126065037911897</v>
       </c>
     </row>
     <row r="52">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.3319553958774863</v>
+        <v>0.3120459704881167</v>
       </c>
     </row>
     <row r="53">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.3207800526614027</v>
+        <v>0.3305271026691204</v>
       </c>
     </row>
     <row r="54">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.300871929093776</v>
+        <v>0.3230620133872894</v>
       </c>
     </row>
     <row r="55">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.4422396189311469</v>
+        <v>0.4172272213787906</v>
       </c>
     </row>
     <row r="56">
@@ -1142,11 +1142,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Wondering-how-Apache-Kafka-is-different-compared-to-other-Message-brokers-_full.txt</t>
+          <t>txtfiles\category_1_folder\What-is-Streaming-Analytics-Data-Streaming-and-Stream-Processing-AltexSoft_full.txt</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2666251529122888</v>
+        <v>0.4564601981988259</v>
       </c>
     </row>
     <row r="57">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.3671969332219053</v>
+        <v>0.3903103165038186</v>
       </c>
     </row>
     <row r="58">
@@ -1172,12 +1172,12 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.5901736551119532</v>
+        <v>0.5664517154415728</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1185,12 +1185,12 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3358833607013239</v>
+        <v>0.3235584398589162</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.2818288582554015</v>
+        <v>0.3813268817975632</v>
       </c>
     </row>
     <row r="61">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.3911574662012322</v>
+        <v>0.3491706085852085</v>
       </c>
     </row>
     <row r="62">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.2602508463158931</v>
+        <v>0.241781735932661</v>
       </c>
     </row>
     <row r="63">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.3849781171094968</v>
+        <v>0.342707447820026</v>
       </c>
     </row>
     <row r="64">
@@ -1250,20 +1250,20 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.4478959313487301</v>
+        <v>0.4619952162763722</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-10-OOP-Design-Principles-Java-Programmers-can-Learn-in-2022-by-javinpaul-Javarevisited-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Routing-Topologies-for-Performance-and-Scalability-with-RabbitMQ_full.txt</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.6771872465422787</v>
+        <v>0.3725002394095424</v>
       </c>
     </row>
     <row r="66">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.4574062044532756</v>
+        <v>0.3684221256395271</v>
       </c>
     </row>
     <row r="67">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.4946162353579094</v>
+        <v>0.4541305855579642</v>
       </c>
     </row>
     <row r="68">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.2857349521029834</v>
+        <v>0.2747842509599233</v>
       </c>
     </row>
     <row r="69">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.3779150877921444</v>
+        <v>0.3878002897271334</v>
       </c>
     </row>
     <row r="70">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.3734755283281073</v>
+        <v>0.4150624677214252</v>
       </c>
     </row>
     <row r="71">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.4753882743200288</v>
+        <v>0.5159377757155932</v>
       </c>
     </row>
     <row r="72">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.2467298091020822</v>
+        <v>0.3403488998285873</v>
       </c>
     </row>
     <row r="73">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.3087150925610892</v>
+        <v>0.3352093715876758</v>
       </c>
     </row>
     <row r="74">
@@ -1380,12 +1380,12 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.3016566804302097</v>
+        <v>0.3066391480004579</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.2121776261419019</v>
+        <v>0.2085801424762715</v>
       </c>
     </row>
     <row r="76">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8007342519770595</v>
+        <v>0.7741190981755732</v>
       </c>
     </row>
     <row r="77">
@@ -1419,25 +1419,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7060648029644612</v>
+        <v>0.7192429760776222</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-is-Apache-Camel-Packt-Hub_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-13-Best-Big-Data-Companies-of-2022_full.txt</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.318340705265477</v>
+        <v>0.6513009686386366</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.3043601905819751</v>
+        <v>0.3424479943266121</v>
       </c>
     </row>
     <row r="80">
@@ -1458,12 +1458,12 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.58839098809345</v>
+        <v>0.5731233068660617</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.3406258129127918</v>
+        <v>0.3566844258453115</v>
       </c>
     </row>
     <row r="82">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.7244432815152759</v>
+        <v>0.5427267773015847</v>
       </c>
     </row>
     <row r="83">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.2864672537529621</v>
+        <v>0.2831606023285221</v>
       </c>
     </row>
     <row r="84">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.2948446063849598</v>
+        <v>0.2903394388776827</v>
       </c>
     </row>
     <row r="85">
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5745374916764016</v>
+        <v>0.539543830725994</v>
       </c>
     </row>
     <row r="86">
@@ -1536,12 +1536,12 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.3901559471318009</v>
+        <v>0.3752412233594609</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1549,12 +1549,12 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.4598602704651117</v>
+        <v>0.535163499441086</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.2921495659992387</v>
+        <v>0.4209868563640909</v>
       </c>
     </row>
     <row r="89">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.6569615532208093</v>
+        <v>0.5162549480615356</v>
       </c>
     </row>
     <row r="90">
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.3489211591792458</v>
+        <v>0.3562285543647331</v>
       </c>
     </row>
     <row r="91">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.5339015067499875</v>
+        <v>0.6121059500483247</v>
       </c>
     </row>
     <row r="92">
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5992629272811474</v>
+        <v>0.5716672495884123</v>
       </c>
     </row>
     <row r="93">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.6600856042030426</v>
+        <v>0.6536897923757862</v>
       </c>
     </row>
     <row r="94">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.2699873244677198</v>
+        <v>0.2765086159298323</v>
       </c>
     </row>
     <row r="95">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.7599559029909395</v>
+        <v>0.7616905680593297</v>
       </c>
     </row>
     <row r="96">
@@ -1666,12 +1666,12 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.4532081801652696</v>
+        <v>0.4251393938452996</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.2316988391846761</v>
+        <v>0.2602137960446698</v>
       </c>
     </row>
     <row r="98">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.5856538765730593</v>
+        <v>0.5864500864377437</v>
       </c>
     </row>
     <row r="99">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.5400978788383612</v>
+        <v>0.5267835208595347</v>
       </c>
     </row>
     <row r="100">
@@ -1718,20 +1718,20 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.3366799909612045</v>
+        <v>0.382194711610782</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-is-the-Difference-Between-ActiveMQ-and-RabbitMQ-PediaaCom_full.txt</t>
+          <t>txtfiles\category_1_folder\Why-is-loose-coupling-between-services-so-important_full.txt</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.4437611647405086</v>
+        <v>0.6491783211690945</v>
       </c>
     </row>
     <row r="102">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.2937606025859525</v>
+        <v>0.2880213958298471</v>
       </c>
     </row>
     <row r="103">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.3096196959343676</v>
+        <v>0.3184902624597879</v>
       </c>
     </row>
     <row r="104">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.4855254115627915</v>
+        <v>0.4797386924400104</v>
       </c>
     </row>
     <row r="105">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.2674580226914474</v>
+        <v>0.4117258033184999</v>
       </c>
     </row>
     <row r="106">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.2258390451295607</v>
+        <v>0.2392515650701117</v>
       </c>
     </row>
     <row r="107">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.3375497613392072</v>
+        <v>0.3544210766772895</v>
       </c>
     </row>
     <row r="108">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.2519992752246457</v>
+        <v>0.2439197513725278</v>
       </c>
     </row>
     <row r="109">
@@ -1835,20 +1835,20 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.7217098915860477</v>
+        <v>0.6923360228009708</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What is message queuing - CloudAMQP_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-9-ETL-Tools-For-Data-Integration-In-2020-Best-ETL-Tools_full.txt</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.2449493924341924</v>
+        <v>0.4516510529331872</v>
       </c>
     </row>
     <row r="111">
@@ -1861,12 +1861,12 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.4874933223553337</v>
+        <v>0.4919880278277241</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.2545911550564268</v>
+        <v>0.2618629623334477</v>
       </c>
     </row>
     <row r="113">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.4553903173254434</v>
+        <v>0.5770900146024445</v>
       </c>
     </row>
     <row r="114">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.7535238471399264</v>
+        <v>0.754590323884988</v>
       </c>
     </row>
     <row r="115">
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.7079338370884624</v>
+        <v>0.6681375895235451</v>
       </c>
     </row>
     <row r="116">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.7075634299278163</v>
+        <v>0.7241347542943019</v>
       </c>
     </row>
     <row r="117">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5872141639350795</v>
+        <v>0.5908645599046966</v>
       </c>
     </row>
     <row r="118">
@@ -1952,12 +1952,12 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.2060815337813923</v>
+        <v>0.2330812967878591</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.3179402907566358</v>
+        <v>0.2634018637865996</v>
       </c>
     </row>
     <row r="120">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.4877603967141503</v>
+        <v>0.4527036047653524</v>
       </c>
     </row>
     <row r="121">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.4631969291523206</v>
+        <v>0.4603002497399343</v>
       </c>
     </row>
     <row r="122">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.2961485623677745</v>
+        <v>0.2962396904871303</v>
       </c>
     </row>
     <row r="123">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.2903266815460009</v>
+        <v>0.3327980082510002</v>
       </c>
     </row>
     <row r="124">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.6351429406866838</v>
+        <v>0.6683988391314348</v>
       </c>
     </row>
     <row r="125">
@@ -2043,12 +2043,12 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.4001555162375911</v>
+        <v>0.3935421922587806</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.4424967975979515</v>
+        <v>0.3801663437105804</v>
       </c>
     </row>
     <row r="127">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.3586711553817188</v>
+        <v>0.3428824067160341</v>
       </c>
     </row>
     <row r="128">
@@ -2082,12 +2082,12 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.617612051423867</v>
+        <v>0.6158498285958595</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.2368231382308854</v>
+        <v>0.3254519661674652</v>
       </c>
     </row>
     <row r="130">
@@ -2108,12 +2108,12 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.522641310107368</v>
+        <v>0.5289708928302884</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.473697960582234</v>
+        <v>0.5159670990887061</v>
       </c>
     </row>
     <row r="132">
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.5187723070108083</v>
+        <v>0.532249698231392</v>
       </c>
     </row>
     <row r="133">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.4122992414916569</v>
+        <v>0.3977248726341587</v>
       </c>
     </row>
     <row r="134">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.2103184744994091</v>
+        <v>0.2392347285301012</v>
       </c>
     </row>
     <row r="135">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.395060166010872</v>
+        <v>0.3812414639899878</v>
       </c>
     </row>
     <row r="136">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.403977919124367</v>
+        <v>0.3930627412945046</v>
       </c>
     </row>
     <row r="137">
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.5485281741123221</v>
+        <v>0.5594731176049885</v>
       </c>
     </row>
     <row r="138">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.2749837149990892</v>
+        <v>0.2557475971913786</v>
       </c>
     </row>
     <row r="139">
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.5181165747183357</v>
+        <v>0.4833022900138866</v>
       </c>
     </row>
     <row r="140">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.2103995920265879</v>
+        <v>0.2124332735893162</v>
       </c>
     </row>
     <row r="141">
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.5114003489467008</v>
+        <v>0.5221600657554374</v>
       </c>
     </row>
     <row r="142">
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.5833198078255443</v>
+        <v>0.5718997764882496</v>
       </c>
     </row>
     <row r="143">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Redis, Kafka or RabbitMQ Which MicroServices Message Broker To Choose_full.txt</t>
+          <t>txtfiles\category_1_folder\Realtime-streaming-market-data-with-free-software_full.txt</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.3217662583718275</v>
+        <v>0.2160667596425355</v>
       </c>
     </row>
     <row r="144">
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.7182641792725808</v>
+        <v>0.6966871894802084</v>
       </c>
     </row>
     <row r="145">
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.3689293832242356</v>
+        <v>0.2598534459132691</v>
       </c>
     </row>
     <row r="146">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.474288913542154</v>
+        <v>0.4835611063165793</v>
       </c>
     </row>
     <row r="147">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.7504310468828834</v>
+        <v>0.7508074338644454</v>
       </c>
     </row>
     <row r="148">
@@ -2342,12 +2342,12 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.4363888325248995</v>
+        <v>0.4630973063419723</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.2191083358835431</v>
+        <v>0.2206154142000357</v>
       </c>
     </row>
     <row r="150">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.4165229586863042</v>
+        <v>0.4029872916198486</v>
       </c>
     </row>
     <row r="151">
@@ -2381,20 +2381,20 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.4100019171849963</v>
+        <v>0.4009120535850809</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Service-Decomposition-SOA-Design-Patterns-Service-Governance-Patterns-InformIT_full.txt</t>
+          <t>txtfiles\category_1_folder\Wondering-how-Apache-Kafka-is-different-compared-to-other-Message-brokers-_full.txt</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.6365585602850554</v>
+        <v>0.2527943500770108</v>
       </c>
     </row>
     <row r="153">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.348327491697942</v>
+        <v>0.3154967445900655</v>
       </c>
     </row>
     <row r="154">
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.6817298915113443</v>
+        <v>0.6566951895390413</v>
       </c>
     </row>
     <row r="155">
@@ -2433,12 +2433,12 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.3569295908577805</v>
+        <v>0.3766115006883259</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.3127661964309458</v>
+        <v>0.3647058685730763</v>
       </c>
     </row>
     <row r="157">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.6573107140719145</v>
+        <v>0.6499015524513232</v>
       </c>
     </row>
     <row r="158">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.5956450600381565</v>
+        <v>0.6185786841098325</v>
       </c>
     </row>
     <row r="159">
@@ -2485,12 +2485,12 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.525290124542538</v>
+        <v>0.5321082095835226</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2498,12 +2498,12 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.4471582605090779</v>
+        <v>0.4158293738173043</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2511,20 +2511,20 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.3988261682348733</v>
+        <v>0.4934008702556834</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\SL-Announces-Monitoring-as-a-Service-for-Dell-Boomi-with-RTView-Cloud-for-Middleware-Monitoring_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-10-OOP-Design-Principles-Java-Programmers-can-Learn-in-2022-by-javinpaul-Javarevisited-Medium_full.txt</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.6322295719041138</v>
+        <v>0.6796364789813198</v>
       </c>
     </row>
     <row r="163">
@@ -2537,20 +2537,20 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.6316299165832726</v>
+        <v>0.631997270407057</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\User-Stories-Apache-Camel_full.txt</t>
+          <t>txtfiles\category_1_folder\rabbitmq-Brave-New-Geek_full.txt</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.4335628458448779</v>
+        <v>0.7161217286999018</v>
       </c>
     </row>
     <row r="165">
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.4900297418897173</v>
+        <v>0.5302162304897525</v>
       </c>
     </row>
     <row r="166">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.3367024870008697</v>
+        <v>0.326603650079945</v>
       </c>
     </row>
     <row r="167">
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.3387382096506559</v>
+        <v>0.3248712472898201</v>
       </c>
     </row>
     <row r="168">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.4145347721647441</v>
+        <v>0.451449201207385</v>
       </c>
     </row>
     <row r="169">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.7737283306370296</v>
+        <v>0.7856321894831675</v>
       </c>
     </row>
     <row r="170">
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.5665355684112563</v>
+        <v>0.56415254492633</v>
       </c>
     </row>
     <row r="171">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.5472710512002612</v>
+        <v>0.5735817960353005</v>
       </c>
     </row>
     <row r="172">
@@ -2654,12 +2654,12 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.4919810747293044</v>
+        <v>0.4665781791313329</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -2667,12 +2667,12 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.4924736508672983</v>
+        <v>0.4437484737368438</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.4257331254033872</v>
+        <v>0.3058421366937815</v>
       </c>
     </row>
     <row r="175">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.4979574036430958</v>
+        <v>0.4373555292387432</v>
       </c>
     </row>
     <row r="176">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.4386646732667723</v>
+        <v>0.4297898278469309</v>
       </c>
     </row>
     <row r="177">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.5698610059805049</v>
+        <v>0.4517930983867219</v>
       </c>
     </row>
     <row r="178">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.3795085534518003</v>
+        <v>0.4199446536894372</v>
       </c>
     </row>
     <row r="179">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.4547620463613635</v>
+        <v>0.7928302985474623</v>
       </c>
     </row>
     <row r="180">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.5301237979533526</v>
+        <v>0.4869982644917272</v>
       </c>
     </row>
     <row r="181">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.6349481663784972</v>
+        <v>0.644640256996062</v>
       </c>
     </row>
     <row r="182">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.3080044613040216</v>
+        <v>0.3177394167601415</v>
       </c>
     </row>
     <row r="183">
@@ -2797,12 +2797,12 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.3446833560983559</v>
+        <v>0.3391521570192622</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -2810,12 +2810,12 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.2482858558943754</v>
+        <v>0.2762943062036871</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.3126143605053367</v>
+        <v>0.386166503024679</v>
       </c>
     </row>
     <row r="186">
@@ -2836,20 +2836,20 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.5952044914306388</v>
+        <v>0.5961554703151327</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-56-ETL-Tools-for-Data-Integration-in-2022-Reviews-Features-Pricing-Comparison-PAT-RESEARCH-B2B-Reviews-Buying-Guides-Best-Practices_full.txt</t>
+          <t>txtfiles\category_1_folder\What-is-Apache-Camel-Packt-Hub_full.txt</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.7491623218858748</v>
+        <v>0.2737248654361659</v>
       </c>
     </row>
     <row r="188">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.532081657304509</v>
+        <v>0.5137529433214956</v>
       </c>
     </row>
     <row r="189">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.3487614553142584</v>
+        <v>0.326687599684488</v>
       </c>
     </row>
     <row r="190">
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.4501566593948261</v>
+        <v>0.4022011535755549</v>
       </c>
     </row>
     <row r="191">
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.3906171040926517</v>
+        <v>0.399222622341498</v>
       </c>
     </row>
     <row r="192">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.9440037388699684</v>
+        <v>0.9178969497732838</v>
       </c>
     </row>
     <row r="193">
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.445868176899338</v>
+        <v>0.431704282511702</v>
       </c>
     </row>
     <row r="194">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.4857286988948915</v>
+        <v>0.4427438928674525</v>
       </c>
     </row>
     <row r="195">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.6630508257458314</v>
+        <v>0.6191648702897219</v>
       </c>
     </row>
     <row r="196">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.3056559573070972</v>
+        <v>0.2627052950146321</v>
       </c>
     </row>
     <row r="197">
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.3555186959105145</v>
+        <v>0.3691535869836685</v>
       </c>
     </row>
     <row r="198">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.435062930607556</v>
+        <v>0.4318938232289925</v>
       </c>
     </row>
     <row r="199">
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.3277164994167023</v>
+        <v>0.3363647703348929</v>
       </c>
     </row>
     <row r="200">
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.4429428494257723</v>
+        <v>0.556457853982875</v>
       </c>
     </row>
     <row r="201">
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.4586175599639726</v>
+        <v>0.5305727250278318</v>
       </c>
     </row>
     <row r="202">
@@ -3044,20 +3044,20 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.3201077685821506</v>
+        <v>0.4261625415985813</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Using-RabbitMQ-as-a-message-broker-in-Dynamics-CRM-data-interfaces-part-3_full.txt</t>
+          <t>txtfiles\category_1_folder\Some queuing theory throughput, latency and bandwidth RabbitMQ - Blog_full.txt</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.3944689876580197</v>
+        <v>0.7783994934238856</v>
       </c>
     </row>
     <row r="204">
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.6819011169957876</v>
+        <v>0.6974403714134955</v>
       </c>
     </row>
     <row r="205">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.4446339975928701</v>
+        <v>0.4412878294982431</v>
       </c>
     </row>
     <row r="206">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.3071771388080944</v>
+        <v>0.2847925605711983</v>
       </c>
     </row>
     <row r="207">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.3157014524993997</v>
+        <v>0.3339635512459204</v>
       </c>
     </row>
     <row r="208">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.3709081992338764</v>
+        <v>0.4228162796169976</v>
       </c>
     </row>
     <row r="209">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.6161897143703289</v>
+        <v>0.608206917610399</v>
       </c>
     </row>
     <row r="210">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.4331789191536807</v>
+        <v>0.3945512690700281</v>
       </c>
     </row>
     <row r="211">
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.6545657520389883</v>
+        <v>0.7216831080733994</v>
       </c>
     </row>
     <row r="212">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.5844605917456789</v>
+        <v>0.571768516673099</v>
       </c>
     </row>
     <row r="213">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.6357092823335977</v>
+        <v>0.5769625783986224</v>
       </c>
     </row>
     <row r="214">
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.3505961525875771</v>
+        <v>0.4043419029978655</v>
       </c>
     </row>
     <row r="215">
@@ -3213,12 +3213,12 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.6289173525242984</v>
+        <v>0.6344520464096627</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.3150415401239828</v>
+        <v>0.3676556332580578</v>
       </c>
     </row>
     <row r="217">
@@ -3239,20 +3239,20 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.494619230508878</v>
+        <v>0.4478903088368741</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Spoilt-for-Choice-Which-Integration-Framework-to-use-Spring-Integration-Mule-ESB-or-Apache-Camel-Kai-Waehner_full.txt</t>
+          <t>txtfiles\category_1_folder\Using-RabbitMQ-as-a-message-broker-in-Dynamics-CRM-data-interfaces-part-3_full.txt</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.6619952451573999</v>
+        <v>0.5002777969763733</v>
       </c>
     </row>
     <row r="219">
@@ -3265,12 +3265,12 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.5766085961380157</v>
+        <v>0.5798080004066012</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.2465952278544817</v>
+        <v>0.2358971423232388</v>
       </c>
     </row>
     <row r="221">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.3586291166715099</v>
+        <v>0.3368915580255419</v>
       </c>
     </row>
     <row r="222">
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.4414845694173287</v>
+        <v>0.444313832687756</v>
       </c>
     </row>
     <row r="223">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.3749445239012445</v>
+        <v>0.3178472580082161</v>
       </c>
     </row>
     <row r="224">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.4110559689901171</v>
+        <v>0.3908826203174648</v>
       </c>
     </row>
     <row r="225">
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.513602556863986</v>
+        <v>0.4366138109514178</v>
       </c>
     </row>
     <row r="226">
@@ -3356,12 +3356,12 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.3199133728592511</v>
+        <v>0.3267290444922647</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.3177059520621757</v>
+        <v>0.2895507493037277</v>
       </c>
     </row>
     <row r="228">
@@ -3382,12 +3382,12 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.3675363017229495</v>
+        <v>0.3495213761749472</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.2119140154221388</v>
+        <v>0.2601736048347116</v>
       </c>
     </row>
     <row r="230">
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.2919411651386531</v>
+        <v>0.2915431829207136</v>
       </c>
     </row>
     <row r="231">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.5113186272852029</v>
+        <v>0.4833342970986033</v>
       </c>
     </row>
     <row r="232">
@@ -3434,12 +3434,12 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.6049946851604744</v>
+        <v>0.5989491585148337</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.3223923489733244</v>
+        <v>0.3713990742796081</v>
       </c>
     </row>
     <row r="234">
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.2854610968444714</v>
+        <v>0.2202330078980375</v>
       </c>
     </row>
     <row r="235">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.2670858797819101</v>
+        <v>0.3035540796469443</v>
       </c>
     </row>
     <row r="236">
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.4461063387604559</v>
+        <v>0.5069248266748921</v>
       </c>
     </row>
     <row r="237">
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.4413995046717656</v>
+        <v>0.4625832194376107</v>
       </c>
     </row>
     <row r="238">
@@ -3512,12 +3512,12 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.565694889814998</v>
+        <v>0.5621485440791707</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.4758894384399364</v>
+        <v>0.4664685302131753</v>
       </c>
     </row>
     <row r="240">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.5393105565725148</v>
+        <v>0.5086490129583232</v>
       </c>
     </row>
     <row r="241">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.4885369074353661</v>
+        <v>0.4631233398970446</v>
       </c>
     </row>
     <row r="242">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.5950861961765882</v>
+        <v>0.5707609133238751</v>
       </c>
     </row>
     <row r="243">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.657231519531345</v>
+        <v>0.6625167855647397</v>
       </c>
     </row>
     <row r="244">
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.3485421504239592</v>
+        <v>0.3351836069961333</v>
       </c>
     </row>
     <row r="245">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.723573936841631</v>
+        <v>0.7040487925608477</v>
       </c>
     </row>
     <row r="246">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.2731349840585003</v>
+        <v>0.2919569933483334</v>
       </c>
     </row>
     <row r="247">
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.5744866674530138</v>
+        <v>0.5687799765530144</v>
       </c>
     </row>
     <row r="248">
@@ -3642,12 +3642,12 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.4269155629685678</v>
+        <v>0.4249630002775376</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.2964356666614754</v>
+        <v>0.4534742794310812</v>
       </c>
     </row>
     <row r="250">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.2286200723741338</v>
+        <v>0.2397402241808735</v>
       </c>
     </row>
     <row r="251">
@@ -3677,11 +3677,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-15-Big-Data-Tools-Big-Data-Analytics-Tools-in-2022_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-56-ETL-Tools-for-Data-Integration-in-2022-Reviews-Features-Pricing-Comparison-PAT-RESEARCH-B2B-Reviews-Buying-Guides-Best-Practices_full.txt</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.5851407373014955</v>
+        <v>0.7635600703354219</v>
       </c>
     </row>
     <row r="252">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.2503710029758378</v>
+        <v>0.2318399841825455</v>
       </c>
     </row>
     <row r="253">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.4246785025311799</v>
+        <v>0.4811995006312189</v>
       </c>
     </row>
     <row r="254">
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.8022894771539953</v>
+        <v>0.7341804101083319</v>
       </c>
     </row>
     <row r="255">
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.3384784305095135</v>
+        <v>0.3105931780221926</v>
       </c>
     </row>
     <row r="256">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.4222246560750972</v>
+        <v>0.3825114168010185</v>
       </c>
     </row>
     <row r="257">
@@ -3759,12 +3759,12 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.7880251259806821</v>
+        <v>0.7697879409490144</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.4194567454152927</v>
+        <v>0.2982275166056544</v>
       </c>
     </row>
     <row r="259">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.3512710832471441</v>
+        <v>0.3606547229657642</v>
       </c>
     </row>
     <row r="260">
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.5141237479716815</v>
+        <v>0.5544158549943807</v>
       </c>
     </row>
     <row r="261">
@@ -3811,12 +3811,12 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.4741951169297942</v>
+        <v>0.4647288943755934</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.4711510882394226</v>
+        <v>0.7784503882192781</v>
       </c>
     </row>
     <row r="263">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.5472184813998014</v>
+        <v>0.5260170572220354</v>
       </c>
     </row>
     <row r="264">
@@ -3850,12 +3850,12 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.5505048316078112</v>
+        <v>0.5219622269967603</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.4294313289657661</v>
+        <v>0.288994265743044</v>
       </c>
     </row>
     <row r="266">
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.3315150635084162</v>
+        <v>0.3522840996636568</v>
       </c>
     </row>
     <row r="267">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.2497283244237027</v>
+        <v>0.2625924523713334</v>
       </c>
     </row>
     <row r="268">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.3740754147067866</v>
+        <v>0.408816805637065</v>
       </c>
     </row>
     <row r="269">
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.350334140115747</v>
+        <v>0.3788025260170367</v>
       </c>
     </row>
     <row r="270">
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.299819228721047</v>
+        <v>0.3025416752904398</v>
       </c>
     </row>
     <row r="271">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.3939682657230303</v>
+        <v>0.3769397255026778</v>
       </c>
     </row>
     <row r="272">
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.3777895814427879</v>
+        <v>0.370018840017177</v>
       </c>
     </row>
     <row r="273">
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.6498681003479396</v>
+        <v>0.6593238883844464</v>
       </c>
     </row>
     <row r="274">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.3771375743187544</v>
+        <v>0.3243441988006056</v>
       </c>
     </row>
     <row r="275">
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.3301644779543642</v>
+        <v>0.271257379190732</v>
       </c>
     </row>
     <row r="276">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.4464833323002866</v>
+        <v>0.4374534973019617</v>
       </c>
     </row>
     <row r="277">
@@ -4019,12 +4019,12 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.4012622226904801</v>
+        <v>0.3671235183193441</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.2469941453247489</v>
+        <v>0.3119289646786055</v>
       </c>
     </row>
     <row r="279">
@@ -4045,7 +4045,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.692735494720403</v>
+        <v>0.6970297669264011</v>
       </c>
     </row>
     <row r="280">
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.376907218886787</v>
+        <v>0.3524374950188225</v>
       </c>
     </row>
     <row r="281">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.3752952169781478</v>
+        <v>0.3562850630359611</v>
       </c>
     </row>
     <row r="282">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.3964771862356018</v>
+        <v>0.3786457644337714</v>
       </c>
     </row>
     <row r="283">
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.3482087570217509</v>
+        <v>0.3494072636959736</v>
       </c>
     </row>
     <row r="284">
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.7436156087056809</v>
+        <v>0.729105186946834</v>
       </c>
     </row>
     <row r="285">
@@ -4123,20 +4123,20 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.824366507431787</v>
+        <v>0.8325950348161778</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-7-Data-Streaming-Tools-For-RealTime-Analytics_full.txt</t>
+          <t>txtfiles\category_1_folder\The Hardest Part About Microservices Your Data Red Hat Developer_full.txt</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.3988415516617509</v>
+        <v>0.5632213357160057</v>
       </c>
     </row>
     <row r="287">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.6743666767401385</v>
+        <v>0.6614495235386417</v>
       </c>
     </row>
     <row r="288">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.4474066308099391</v>
+        <v>0.7863151317205859</v>
       </c>
     </row>
     <row r="289">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.5600545403458169</v>
+        <v>0.5558738469835646</v>
       </c>
     </row>
     <row r="290">
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.3926591689468589</v>
+        <v>0.3799578175725169</v>
       </c>
     </row>
     <row r="291">
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.3114531935161359</v>
+        <v>0.3105532813227987</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.3485758480719532</v>
+        <v>0.2773031100454962</v>
       </c>
     </row>
     <row r="293">
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.5314716991647375</v>
+        <v>0.5422741042603996</v>
       </c>
     </row>
     <row r="294">
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.5659694873742372</v>
+        <v>0.5735065020125496</v>
       </c>
     </row>
     <row r="295">
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.7711536539830128</v>
+        <v>0.7542213461580886</v>
       </c>
     </row>
     <row r="296">
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.3619075268141282</v>
+        <v>0.3744537938724311</v>
       </c>
     </row>
     <row r="297">
@@ -4279,7 +4279,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.4215780826608001</v>
+        <v>0.412209929153294</v>
       </c>
     </row>
     <row r="298">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.3077719628360754</v>
+        <v>0.3026247443768637</v>
       </c>
     </row>
     <row r="299">
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.5324216940642668</v>
+        <v>0.5906673247192775</v>
       </c>
     </row>
     <row r="300">
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.2424794549010794</v>
+        <v>0.2340234292175995</v>
       </c>
     </row>
     <row r="301">
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.2914119610626183</v>
+        <v>0.2908020513308626</v>
       </c>
     </row>
     <row r="302">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.5408891787139084</v>
+        <v>0.5265569527315036</v>
       </c>
     </row>
     <row r="303">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.3353258877930305</v>
+        <v>0.2891244493033672</v>
       </c>
     </row>
     <row r="304">
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.4405069628251724</v>
+        <v>0.4226892889139512</v>
       </c>
     </row>
     <row r="305">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.6280116539203062</v>
+        <v>0.6158778240246516</v>
       </c>
     </row>
     <row r="306">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.3960449498160984</v>
+        <v>0.3863950001375938</v>
       </c>
     </row>
     <row r="307">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.5444301977341944</v>
+        <v>0.5372659005932963</v>
       </c>
     </row>
     <row r="308">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.5463516021941556</v>
+        <v>0.5100496564946437</v>
       </c>
     </row>
     <row r="309">
@@ -4435,7 +4435,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.5022942274168442</v>
+        <v>0.500606139076799</v>
       </c>
     </row>
     <row r="310">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.2137604788959448</v>
+        <v>0.2139213224477559</v>
       </c>
     </row>
     <row r="311">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.3857336717539795</v>
+        <v>0.4153131807310104</v>
       </c>
     </row>
     <row r="312">
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.3383804710929447</v>
+        <v>0.3465801743558726</v>
       </c>
     </row>
     <row r="313">
@@ -4487,25 +4487,25 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.7809091110162227</v>
+        <v>0.7662960121503005</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Refactoring application code to microservices - IBM Garage Practices_full.txt</t>
+          <t>txtfiles\category_1_folder\Redis, Kafka or RabbitMQ Which MicroServices Message Broker To Choose_full.txt</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.3156539946997343</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.3078068101338427</v>
+        <v>0.2858807937931748</v>
       </c>
     </row>
     <row r="316">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.5258595053946993</v>
+        <v>0.5270976523305783</v>
       </c>
     </row>
     <row r="317">
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.5188514902161527</v>
+        <v>0.4035306411018613</v>
       </c>
     </row>
     <row r="318">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.4552701615768948</v>
+        <v>0.3218291935253763</v>
       </c>
     </row>
     <row r="319">
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.3104859699301227</v>
+        <v>0.3503833680469738</v>
       </c>
     </row>
     <row r="320">
@@ -4578,12 +4578,12 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.4413729739217477</v>
+        <v>0.407268961894122</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.2476649274829538</v>
+        <v>0.2346960748723539</v>
       </c>
     </row>
     <row r="322">
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.5305357902694792</v>
+        <v>0.5269384334921803</v>
       </c>
     </row>
     <row r="323">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.2393332441431714</v>
+        <v>0.2321526071103004</v>
       </c>
     </row>
     <row r="324">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.483985986236885</v>
+        <v>0.4793009251830464</v>
       </c>
     </row>
     <row r="325">
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.3970356967798785</v>
+        <v>0.3727407703006017</v>
       </c>
     </row>
     <row r="326">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.425539902466998</v>
+        <v>0.4111036541899993</v>
       </c>
     </row>
     <row r="327">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.3767729192572556</v>
+        <v>0.3411454248462533</v>
       </c>
     </row>
     <row r="328">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.4735891852070059</v>
+        <v>0.4544187582078502</v>
       </c>
     </row>
     <row r="329">
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.5633962421410269</v>
+        <v>0.5590385891937178</v>
       </c>
     </row>
     <row r="330">
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.4911615523982307</v>
+        <v>0.4453880565982357</v>
       </c>
     </row>
     <row r="331">
@@ -4717,16 +4717,16 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top 10 Real-Time Data Streaming Tools - AWS Cloud Feed_full.txt</t>
+          <t>txtfiles\category_1_folder\Scraping Nasdaq news using Python - Datahut_full.txt</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.4411346766643665</v>
+        <v>0.486238032238365</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.3744525862153699</v>
+        <v>0.554867687433802</v>
       </c>
     </row>
     <row r="333">
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.4485885483969549</v>
+        <v>0.4404206415700211</v>
       </c>
     </row>
     <row r="334">
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.4269880542871926</v>
+        <v>0.4165968578692333</v>
       </c>
     </row>
     <row r="335">
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.352820787430131</v>
+        <v>0.3715797498503068</v>
       </c>
     </row>
     <row r="336">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.1987699407095256</v>
+        <v>0.2377618573133199</v>
       </c>
     </row>
     <row r="337">
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.4751040460992267</v>
+        <v>0.5128846717651224</v>
       </c>
     </row>
     <row r="338">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.4257284903155768</v>
+        <v>0.4223792223850018</v>
       </c>
     </row>
     <row r="339">
@@ -4825,20 +4825,20 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.3748263587346722</v>
+        <v>0.3594036661115559</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Synchronous vs Asynchronous by Example by Robert Maidla Level Up Coding_full.txt</t>
+          <t>txtfiles\category_1_folder\What is message queuing - CloudAMQP_full.txt</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.3468754882520909</v>
+        <v>0.2649458732420928</v>
       </c>
     </row>
     <row r="341">
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.4316040140538271</v>
+        <v>0.458439068938858</v>
       </c>
     </row>
     <row r="342">
@@ -4864,7 +4864,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.3416271370110447</v>
+        <v>0.3189353701674453</v>
       </c>
     </row>
     <row r="343">
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.3414001811310449</v>
+        <v>0.3398995251000884</v>
       </c>
     </row>
     <row r="344">
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.5128321118038668</v>
+        <v>0.5255365563607979</v>
       </c>
     </row>
     <row r="345">
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.2766011423728023</v>
+        <v>0.277266361384031</v>
       </c>
     </row>
     <row r="346">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.3294280000397666</v>
+        <v>0.3367390942190644</v>
       </c>
     </row>
     <row r="347">
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.7238468887409322</v>
+        <v>0.736513646453838</v>
       </c>
     </row>
     <row r="348">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.2269681998682405</v>
+        <v>0.2370496165306115</v>
       </c>
     </row>
     <row r="349">
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.505086796180903</v>
+        <v>0.466976210709048</v>
       </c>
     </row>
     <row r="350">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.3668762482759004</v>
+        <v>0.3730385848802972</v>
       </c>
     </row>
     <row r="351">
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.3178129237643843</v>
+        <v>0.3329185251151002</v>
       </c>
     </row>
     <row r="352">
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.6840096586770172</v>
+        <v>0.679773691668295</v>
       </c>
     </row>
     <row r="353">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.2182067117419219</v>
+        <v>0.2209738741132986</v>
       </c>
     </row>
     <row r="354">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.5415820058461469</v>
+        <v>0.6501045201145663</v>
       </c>
     </row>
     <row r="355">
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.6208526243950921</v>
+        <v>0.5917687575841999</v>
       </c>
     </row>
     <row r="356">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.6344889088276771</v>
+        <v>0.6144369033673495</v>
       </c>
     </row>
     <row r="357">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.3162685335121393</v>
+        <v>0.2964290035488375</v>
       </c>
     </row>
     <row r="358">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.4328502883396528</v>
+        <v>0.5610082088646846</v>
       </c>
     </row>
     <row r="359">
@@ -5085,12 +5085,12 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.3755520130611743</v>
+        <v>0.3798255874159496</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.310231127679128</v>
+        <v>0.3610051296331576</v>
       </c>
     </row>
     <row r="361">
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.4214333086877887</v>
+        <v>0.4268523720596843</v>
       </c>
     </row>
     <row r="362">
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.2614022885504169</v>
+        <v>0.2559975163840416</v>
       </c>
     </row>
     <row r="363">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.2874211925334082</v>
+        <v>0.2554283246533854</v>
       </c>
     </row>
     <row r="364">
@@ -5150,12 +5150,12 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.3884531424973157</v>
+        <v>0.3494569463085098</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.4403320836871879</v>
+        <v>0.4770767761722517</v>
       </c>
     </row>
     <row r="366">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.7025786779092666</v>
+        <v>0.6676924812822368</v>
       </c>
     </row>
     <row r="367">
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.6756376047169917</v>
+        <v>0.6342334637560659</v>
       </c>
     </row>
     <row r="368">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.6507707751112761</v>
+        <v>0.6825460118860079</v>
       </c>
     </row>
     <row r="369">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.6521590384121544</v>
+        <v>0.6590907169143295</v>
       </c>
     </row>
     <row r="370">
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.4387544129995537</v>
+        <v>0.4497660108204737</v>
       </c>
     </row>
     <row r="371">
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.7436122393782099</v>
+        <v>0.7519211049609876</v>
       </c>
     </row>
     <row r="372">
@@ -5254,20 +5254,20 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.6661396868918388</v>
+        <v>0.6766845333308238</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Which-messaging-queue-is-best-Ravindra-Naik_full.txt</t>
+          <t>txtfiles\category_1_folder\What is streaming data architecture - Definition from WhatIs.com_full.txt</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.3962965940918685</v>
+        <v>0.3415679034308547</v>
       </c>
     </row>
     <row r="374">
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.3314747652901697</v>
+        <v>0.4020663419397987</v>
       </c>
     </row>
     <row r="375">
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.4491095282928014</v>
+        <v>0.5038809528692892</v>
       </c>
     </row>
     <row r="376">
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.3604364762327914</v>
+        <v>0.3850521706331773</v>
       </c>
     </row>
     <row r="377">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.4879321950223054</v>
+        <v>0.3627231850702525</v>
       </c>
     </row>
     <row r="378">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.63610003036336</v>
+        <v>0.6535376070725976</v>
       </c>
     </row>
     <row r="379">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.7065173835159128</v>
+        <v>0.7073908316813713</v>
       </c>
     </row>
     <row r="380">
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.6983661413812896</v>
+        <v>0.6668401091109774</v>
       </c>
     </row>
     <row r="381">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.3769490653098447</v>
+        <v>0.5379412623461757</v>
       </c>
     </row>
     <row r="382">
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.6116502760256538</v>
+        <v>0.6078427338716558</v>
       </c>
     </row>
     <row r="383">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.434087949204833</v>
+        <v>0.4055116884041003</v>
       </c>
     </row>
     <row r="384">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.4935353400524992</v>
+        <v>0.4693244314209458</v>
       </c>
     </row>
     <row r="385">
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.4884451269400802</v>
+        <v>0.4877696588994196</v>
       </c>
     </row>
     <row r="386">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.3632561614752524</v>
+        <v>0.3637289843788191</v>
       </c>
     </row>
     <row r="387">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.9153646054921317</v>
+        <v>0.9170697766349331</v>
       </c>
     </row>
     <row r="388">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.5918804544526937</v>
+        <v>0.6169256967708029</v>
       </c>
     </row>
     <row r="389">
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.281070987877368</v>
+        <v>0.267804913687287</v>
       </c>
     </row>
     <row r="390">
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.4772529695386635</v>
+        <v>0.4349416039259614</v>
       </c>
     </row>
     <row r="391">
@@ -5501,12 +5501,12 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.5421429697574983</v>
+        <v>0.5612984222372942</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.3584908406082502</v>
+        <v>0.307977138839745</v>
       </c>
     </row>
     <row r="393">
@@ -5527,12 +5527,12 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.689446068634622</v>
+        <v>0.6752040763257054</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.412397431845934</v>
+        <v>0.4269052288810591</v>
       </c>
     </row>
     <row r="395">
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.4740538958328731</v>
+        <v>0.4618287313752555</v>
       </c>
     </row>
     <row r="396">
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.3729529315728336</v>
+        <v>0.3381193572220733</v>
       </c>
     </row>
     <row r="397">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.3640126293669647</v>
+        <v>0.3643944865419159</v>
       </c>
     </row>
     <row r="398">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.4940496741686708</v>
+        <v>0.506239332322142</v>
       </c>
     </row>
     <row r="399">
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.3193482882185854</v>
+        <v>0.3129483705868359</v>
       </c>
     </row>
     <row r="400">
@@ -5618,12 +5618,12 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.3584740861869079</v>
+        <v>0.4151496061817533</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.1816860756069126</v>
+        <v>0.1891294046588252</v>
       </c>
     </row>
     <row r="402">
@@ -5644,20 +5644,20 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.3691430443265147</v>
+        <v>0.3734128657154165</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-Is-Data-Streaming-DZone-Big-Data_full.txt</t>
+          <t>txtfiles\category_1_folder\Web-API-Design-5-Best-Practices-to-Know-Toptal_full.txt</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.2869150642610063</v>
+        <v>0.4324119236610555</v>
       </c>
     </row>
     <row r="404">
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.5867101606361101</v>
+        <v>0.6712229739935087</v>
       </c>
     </row>
     <row r="405">
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.3275730851742664</v>
+        <v>0.3166293800047534</v>
       </c>
     </row>
     <row r="406">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.6405385945568856</v>
+        <v>0.6596838166876132</v>
       </c>
     </row>
     <row r="407">
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.2732588989457988</v>
+        <v>0.4726583378725797</v>
       </c>
     </row>
     <row r="408">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.3088515337246274</v>
+        <v>0.3157701930385916</v>
       </c>
     </row>
     <row r="409">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.6207278783823807</v>
+        <v>0.5537482927388263</v>
       </c>
     </row>
     <row r="410">
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.3894732227713061</v>
+        <v>0.3718373454365326</v>
       </c>
     </row>
     <row r="411">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.5059293337926618</v>
+        <v>0.5365762871933812</v>
       </c>
     </row>
     <row r="412">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.4061182920665172</v>
+        <v>0.4087483498330127</v>
       </c>
     </row>
     <row r="413">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.6979752060029465</v>
+        <v>0.6724611617103325</v>
       </c>
     </row>
     <row r="414">
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.4791192283194055</v>
+        <v>0.4169838033229437</v>
       </c>
     </row>
     <row r="415">
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.6934045022654228</v>
+        <v>0.721582241919161</v>
       </c>
     </row>
     <row r="416">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.659083926920654</v>
+        <v>0.6285617099587631</v>
       </c>
     </row>
     <row r="417">
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.3153457587304767</v>
+        <v>0.2810036031177183</v>
       </c>
     </row>
     <row r="418">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.477263321164801</v>
+        <v>0.479532790410113</v>
       </c>
     </row>
     <row r="419">
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.3365426121175317</v>
+        <v>0.3324048747238078</v>
       </c>
     </row>
     <row r="420">
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.2303729156887208</v>
+        <v>0.2364945111243932</v>
       </c>
     </row>
     <row r="421">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.502238729563964</v>
+        <v>0.4987890622045653</v>
       </c>
     </row>
     <row r="422">
@@ -5904,20 +5904,20 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.6886571260766827</v>
+        <v>0.6631152905684286</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Why-is-loose-coupling-between-services-so-important_full.txt</t>
+          <t>txtfiles\category_1_folder\Realtime-Django-Part-5-Build-a-Chat-application-RabbitMQ-and-uWSGI-websockets-uWSGI-WebSockets_full.txt</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.6676918794758043</v>
+        <v>0.5355827285017725</v>
       </c>
     </row>
     <row r="424">
@@ -5930,7 +5930,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.5200088921766036</v>
+        <v>0.4365885416097067</v>
       </c>
     </row>
     <row r="425">
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.5621022615188258</v>
+        <v>0.6711837603403021</v>
       </c>
     </row>
     <row r="426">
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.561073747368372</v>
+        <v>0.561761668101691</v>
       </c>
     </row>
     <row r="427">
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.6941718098111318</v>
+        <v>0.6792292293856763</v>
       </c>
     </row>
     <row r="428">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.280748053290883</v>
+        <v>0.2653201322661558</v>
       </c>
     </row>
     <row r="429">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.3465302321806615</v>
+        <v>0.4181412171722058</v>
       </c>
     </row>
     <row r="430">
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.3798492062844989</v>
+        <v>0.3855175603506201</v>
       </c>
     </row>
     <row r="431">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.2776819620007742</v>
+        <v>0.2915844699279833</v>
       </c>
     </row>
     <row r="432">
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.5163743308530632</v>
+        <v>0.4402099459277975</v>
       </c>
     </row>
     <row r="433">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.2604374198451687</v>
+        <v>0.2697830040521622</v>
       </c>
     </row>
     <row r="434">
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.6756376047169917</v>
+        <v>0.6342334637560659</v>
       </c>
     </row>
     <row r="435">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.6310216058353719</v>
+        <v>0.6203296598960161</v>
       </c>
     </row>
     <row r="436">
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.533093956654322</v>
+        <v>0.5309461632831554</v>
       </c>
     </row>
     <row r="437">
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.3238914919845962</v>
+        <v>0.2704741238085822</v>
       </c>
     </row>
     <row r="438">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.3088085035759104</v>
+        <v>0.2774270220225535</v>
       </c>
     </row>
     <row r="439">
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.5372847516965594</v>
+        <v>0.5624982861861827</v>
       </c>
     </row>
     <row r="440">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.5851546600712089</v>
+        <v>0.5775433289080472</v>
       </c>
     </row>
     <row r="441">
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.4258221965728278</v>
+        <v>0.4669417361915317</v>
       </c>
     </row>
     <row r="442">
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.8512591930351144</v>
+        <v>0.8460887074546213</v>
       </c>
     </row>
     <row r="443">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.931033610094781</v>
+        <v>0.9311637543573031</v>
       </c>
     </row>
     <row r="444">
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.6942304989837808</v>
+        <v>0.7128998296409363</v>
       </c>
     </row>
     <row r="445">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.4864979679805757</v>
+        <v>0.3696588545655934</v>
       </c>
     </row>
     <row r="446">
@@ -6216,12 +6216,12 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.4244724105830218</v>
+        <v>0.3740100452377506</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -6229,12 +6229,12 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.2778452261383287</v>
+        <v>0.3303245424695628</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.3602762331550566</v>
+        <v>0.3329852547247626</v>
       </c>
     </row>
     <row r="449">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.5159703052991831</v>
+        <v>0.5210204856804251</v>
       </c>
     </row>
     <row r="450">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.3142778081191857</v>
+        <v>0.3226093290938832</v>
       </c>
     </row>
     <row r="451">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.404972133565592</v>
+        <v>0.3700479221955049</v>
       </c>
     </row>
     <row r="452">
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.1542860898094471</v>
+        <v>0.1550680066999531</v>
       </c>
     </row>
     <row r="453">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.391074544146676</v>
+        <v>0.4097075395663636</v>
       </c>
     </row>
     <row r="454">
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.2713330614386957</v>
+        <v>0.2569617483188929</v>
       </c>
     </row>
     <row r="455">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.445042484330362</v>
+        <v>0.4502924465286501</v>
       </c>
     </row>
     <row r="456">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.392398843950563</v>
+        <v>0.3702086272555014</v>
       </c>
     </row>
     <row r="457">
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.6296946152488599</v>
+        <v>0.6113249958489358</v>
       </c>
     </row>
     <row r="458">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.4395045979284465</v>
+        <v>0.4183126659720091</v>
       </c>
     </row>
     <row r="459">
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.6607636515086458</v>
+        <v>0.638692406654921</v>
       </c>
     </row>
     <row r="460">
@@ -6398,12 +6398,12 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.3702882351915781</v>
+        <v>0.4204317427537032</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.2594224548615907</v>
+        <v>0.2254756066126246</v>
       </c>
     </row>
     <row r="462">
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.637024880334721</v>
+        <v>0.6181876779991312</v>
       </c>
     </row>
     <row r="463">
@@ -6437,12 +6437,12 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.521228951697115</v>
+        <v>0.6052788626396713</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.4111302102831017</v>
+        <v>0.4659491580997391</v>
       </c>
     </row>
     <row r="465">
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.5056734095157167</v>
+        <v>0.482824131274894</v>
       </c>
     </row>
     <row r="466">
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.5027417217770019</v>
+        <v>0.4969965077872347</v>
       </c>
     </row>
     <row r="467">
@@ -6489,20 +6489,20 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.2322745259090089</v>
+        <v>0.2439896212534444</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-Ten-Differences-Between-ActiveMQ-and-Amazon-SQS-The-Dulin-Report_full.txt</t>
+          <t>txtfiles\category_1_folder\Top 10 Real-Time Data Streaming Tools - AWS Cloud Feed_full.txt</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.482216601086972</v>
+        <v>0.4351668385259759</v>
       </c>
     </row>
     <row r="469">
@@ -6515,12 +6515,12 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.8518733488969322</v>
+        <v>0.8417210550939025</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.2157939484561341</v>
+        <v>0.2543772240186757</v>
       </c>
     </row>
     <row r="471">
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.3345170595567176</v>
+        <v>0.4275357426141383</v>
       </c>
     </row>
     <row r="472">
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.5732718166858261</v>
+        <v>0.54835865789946</v>
       </c>
     </row>
     <row r="473">
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.7039629863662715</v>
+        <v>0.6719771799259213</v>
       </c>
     </row>
     <row r="474">
@@ -6580,12 +6580,12 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.4383022786146661</v>
+        <v>0.3597904183303259</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.5002710905122296</v>
+        <v>0.5011058303289524</v>
       </c>
     </row>
     <row r="476">
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.5255957890822874</v>
+        <v>0.5005210772667508</v>
       </c>
     </row>
     <row r="477">
@@ -6619,12 +6619,12 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.4701358146219415</v>
+        <v>0.5093190349743577</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.4000726813027311</v>
+        <v>0.3747500363444412</v>
       </c>
     </row>
     <row r="479">
@@ -6645,12 +6645,12 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.5833904112926747</v>
+        <v>0.5822448085888289</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.3840747876995421</v>
+        <v>0.3387465615588047</v>
       </c>
     </row>
     <row r="481">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.5990934372149259</v>
+        <v>0.5906760502489572</v>
       </c>
     </row>
     <row r="482">
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.4411942642253756</v>
+        <v>0.4936416970001316</v>
       </c>
     </row>
     <row r="483">
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.6289823855463353</v>
+        <v>0.5975025973885739</v>
       </c>
     </row>
     <row r="484">
@@ -6710,20 +6710,20 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.6575943561269079</v>
+        <v>0.6800897475684262</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-is-Web-Application-Architecture-Components-Models-and-Types_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-ETL-Tools-for-2021And-The-Case-For-Saying-No-To-ETL_full.txt</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.3553192128838165</v>
+        <v>0.4411790101493303</v>
       </c>
     </row>
     <row r="486">
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0.3791820595755122</v>
+        <v>0.3159867249540262</v>
       </c>
     </row>
     <row r="487">
@@ -6749,7 +6749,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0.3333704017683503</v>
+        <v>0.2905429001322113</v>
       </c>
     </row>
     <row r="488">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.4172246659998523</v>
+        <v>0.407351669851025</v>
       </c>
     </row>
     <row r="489">
@@ -6775,20 +6775,20 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0.4953543235702373</v>
+        <v>0.4894074230182832</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\message-queues-Noise_full.txt</t>
+          <t>txtfiles\category_1_folder\Strategies-for-Decomposing-a-System-into-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.8138038174440428</v>
+        <v>0.440832553368856</v>
       </c>
     </row>
     <row r="491">
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0.255337045034106</v>
+        <v>0.3214350029595843</v>
       </c>
     </row>
     <row r="492">
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0.292062537763925</v>
+        <v>0.2418853658145735</v>
       </c>
     </row>
     <row r="493">
@@ -6827,7 +6827,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0.6290604517886343</v>
+        <v>0.6044432443494484</v>
       </c>
     </row>
     <row r="494">
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0.3021299786394724</v>
+        <v>0.2980511018238832</v>
       </c>
     </row>
     <row r="495">
@@ -6853,12 +6853,12 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.367162342356998</v>
+        <v>0.3715776007438434</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.2726396490440412</v>
+        <v>0.2172957523509893</v>
       </c>
     </row>
     <row r="497">
@@ -6879,7 +6879,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.3762138347012509</v>
+        <v>0.3806670430586272</v>
       </c>
     </row>
     <row r="498">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0.341523819168626</v>
+        <v>0.3554345117130015</v>
       </c>
     </row>
     <row r="499">
@@ -6905,20 +6905,20 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0.4622059654720255</v>
+        <v>0.4644723885891631</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-Is-Big-Data-Benefits-of-Big-Data-NetApp_full.txt</t>
+          <t>txtfiles\category_1_folder\introductiontomessagebrokerspart2activemqvsredispubsubdd9e173e27a5_full.txt</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.4967014291899156</v>
+        <v>0.1638351984669286</v>
       </c>
     </row>
     <row r="501">
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0.5103759376838829</v>
+        <v>0.4805147765114596</v>
       </c>
     </row>
     <row r="502">
@@ -6944,20 +6944,20 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>0.2013429706026113</v>
+        <v>0.2513799594749395</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\The current data and event ecosystem by Aiven Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-7-Data-Streaming-Tools-For-RealTime-Analytics_full.txt</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0.2531368564360548</v>
+        <v>0.3740597487531345</v>
       </c>
     </row>
     <row r="504">
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>0.3954534637238971</v>
+        <v>0.3779148637572191</v>
       </c>
     </row>
     <row r="505">
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>0.4435243584341986</v>
+        <v>0.4183332170260428</v>
       </c>
     </row>
     <row r="506">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>0.8029267548618154</v>
+        <v>0.8089091433703052</v>
       </c>
     </row>
     <row r="507">
@@ -7009,7 +7009,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>0.2424830313716886</v>
+        <v>0.2486275395229215</v>
       </c>
     </row>
     <row r="508">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0.561351100172828</v>
+        <v>0.5555353195436891</v>
       </c>
     </row>
     <row r="509">
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>0.4841135658944135</v>
+        <v>0.4328317758031177</v>
       </c>
     </row>
     <row r="510">
@@ -7048,12 +7048,12 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>0.8827816372323574</v>
+        <v>0.8940581016993205</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>0.2831224219241942</v>
+        <v>0.308121031708598</v>
       </c>
     </row>
     <row r="512">
@@ -7074,7 +7074,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>0.5053279437546819</v>
+        <v>0.4603444161313689</v>
       </c>
     </row>
     <row r="513">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>0.4865580046073914</v>
+        <v>0.502301472717495</v>
       </c>
     </row>
     <row r="514">
@@ -7100,12 +7100,12 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>0.5926389818755269</v>
+        <v>0.5839651181553273</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>0.5375390897017305</v>
+        <v>0.4252368719060033</v>
       </c>
     </row>
     <row r="516">
@@ -7126,12 +7126,12 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>0.8162243993633711</v>
+        <v>0.8114605582757263</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>0.2835834638182542</v>
+        <v>0.3225809099082059</v>
       </c>
     </row>
     <row r="518">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>0.594190901031046</v>
+        <v>0.5761202120797236</v>
       </c>
     </row>
     <row r="519">
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>0.4906991645020971</v>
+        <v>0.4614823954630685</v>
       </c>
     </row>
     <row r="520">
@@ -7178,20 +7178,20 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>0.4438143881933801</v>
+        <v>0.5349519885588749</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Realtime-streaming-market-data-with-free-software_full.txt</t>
+          <t>txtfiles\category_1_folder\What-is-the-Difference-Between-ActiveMQ-and-RabbitMQ-PediaaCom_full.txt</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>0.2325705536550166</v>
+        <v>0.434218206458339</v>
       </c>
     </row>
     <row r="522">
@@ -7204,7 +7204,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>0.2479097597673605</v>
+        <v>0.2480622241372347</v>
       </c>
     </row>
     <row r="523">
@@ -7217,7 +7217,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>0.852454392440574</v>
+        <v>0.8423396853226565</v>
       </c>
     </row>
     <row r="524">
@@ -7230,7 +7230,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>0.2348788349792594</v>
+        <v>0.2203181145854575</v>
       </c>
     </row>
     <row r="525">
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>0.6365980999334346</v>
+        <v>0.6404414162935691</v>
       </c>
     </row>
     <row r="526">
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>0.4047866775732969</v>
+        <v>0.3969435472683843</v>
       </c>
     </row>
     <row r="527">
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0.641089080369149</v>
+        <v>0.6447915418730729</v>
       </c>
     </row>
     <row r="528">
@@ -7282,12 +7282,12 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0.4333294114731784</v>
+        <v>0.4359248712481864</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>0.3317621436298579</v>
+        <v>0.6187100590263858</v>
       </c>
     </row>
     <row r="530">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>0.3166013703581071</v>
+        <v>0.3585014875673743</v>
       </c>
     </row>
     <row r="531">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>0.2822154946072036</v>
+        <v>0.2626878164207122</v>
       </c>
     </row>
     <row r="532">
@@ -7334,7 +7334,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>0.230106669216709</v>
+        <v>0.2369224991708674</v>
       </c>
     </row>
     <row r="533">
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>0.3523594464466033</v>
+        <v>0.3444521023138093</v>
       </c>
     </row>
     <row r="534">
@@ -7360,7 +7360,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>0.5521994399047554</v>
+        <v>0.5575585156119308</v>
       </c>
     </row>
     <row r="535">
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>0.6393304609996651</v>
+        <v>0.5464682423756031</v>
       </c>
     </row>
     <row r="536">
@@ -7386,7 +7386,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>0.489980108980321</v>
+        <v>0.4923926315458545</v>
       </c>
     </row>
     <row r="537">
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>0.4547564232348992</v>
+        <v>0.4529934326231244</v>
       </c>
     </row>
     <row r="538">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>0.793715796308447</v>
+        <v>0.7649134754982996</v>
       </c>
     </row>
     <row r="539">
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0.3553260336060102</v>
+        <v>0.3484571501092151</v>
       </c>
     </row>
     <row r="540">
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>0.4537753439993625</v>
+        <v>0.452447601305193</v>
       </c>
     </row>
     <row r="541">
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>0.3262918316089031</v>
+        <v>0.285121016658418</v>
       </c>
     </row>
     <row r="542">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>0.6815142022324492</v>
+        <v>0.6725626960667004</v>
       </c>
     </row>
     <row r="543">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0.4289607876237008</v>
+        <v>0.3808652933066837</v>
       </c>
     </row>
     <row r="544">
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>0.5226853819833999</v>
+        <v>0.4931116542100741</v>
       </c>
     </row>
     <row r="545">
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0.8944691290241572</v>
+        <v>0.9023505393109301</v>
       </c>
     </row>
     <row r="546">
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>0.3228834960779266</v>
+        <v>0.3072795601700586</v>
       </c>
     </row>
     <row r="547">
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>0.7576333116241878</v>
+        <v>0.763817073863751</v>
       </c>
     </row>
     <row r="548">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>0.6494956390085301</v>
+        <v>0.6543709638986308</v>
       </c>
     </row>
     <row r="549">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0.5389960033802189</v>
+        <v>0.5522395253768705</v>
       </c>
     </row>
     <row r="550">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>0.4376403686782258</v>
+        <v>0.4283601162332979</v>
       </c>
     </row>
     <row r="551">
@@ -7581,7 +7581,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>0.2257219341126885</v>
+        <v>0.2290224257966336</v>
       </c>
     </row>
     <row r="552">
@@ -7594,7 +7594,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0.4287888908277157</v>
+        <v>0.2945924326157306</v>
       </c>
     </row>
     <row r="553">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0.2550431166161642</v>
+        <v>0.2732833097512229</v>
       </c>
     </row>
     <row r="554">
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>0.6063387955929567</v>
+        <v>0.6822683525541831</v>
       </c>
     </row>
     <row r="555">
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>0.4232850932178437</v>
+        <v>0.3959492773230668</v>
       </c>
     </row>
     <row r="556">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0.3668762482759004</v>
+        <v>0.3730385848802972</v>
       </c>
     </row>
     <row r="557">
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0.4349216583582132</v>
+        <v>0.4084612235944994</v>
       </c>
     </row>
     <row r="558">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0.216140286390731</v>
+        <v>0.2171133760342061</v>
       </c>
     </row>
     <row r="559">
@@ -7685,7 +7685,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>0.6310858127920942</v>
+        <v>0.6155898064699311</v>
       </c>
     </row>
     <row r="560">
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>0.560867777960541</v>
+        <v>0.5112653259655132</v>
       </c>
     </row>
     <row r="561">
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0.4907822664887503</v>
+        <v>0.5113591574466825</v>
       </c>
     </row>
     <row r="562">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>0.4062654048402473</v>
+        <v>0.4907916032143665</v>
       </c>
     </row>
     <row r="563">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0.5514697342389007</v>
+        <v>0.548717460860451</v>
       </c>
     </row>
     <row r="564">
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0.4932460493966461</v>
+        <v>0.4907864934374421</v>
       </c>
     </row>
     <row r="565">
@@ -7763,7 +7763,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0.3966545012014804</v>
+        <v>0.3934104576239083</v>
       </c>
     </row>
     <row r="566">
@@ -7776,25 +7776,25 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0.3169020214985089</v>
+        <v>0.2759184643056383</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\rabbitmq-Brave-New-Geek_full.txt</t>
+          <t>txtfiles\category_1_folder\UnmarshalConvert-JSON-data-to-JAXBElement-object-Automation-Rhapsody_full.txt</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>0.7040321084776303</v>
+        <v>0.4170063206888243</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>0.2143163516940387</v>
+        <v>0.2494059745836893</v>
       </c>
     </row>
     <row r="569">
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>0.487371482667099</v>
+        <v>0.4823326896667847</v>
       </c>
     </row>
     <row r="570">
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>0.4671088682461534</v>
+        <v>0.4455326343919075</v>
       </c>
     </row>
     <row r="571">
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>0.7153518471503176</v>
+        <v>0.7175846171009475</v>
       </c>
     </row>
     <row r="572">
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>0.5002371408433099</v>
+        <v>0.4864702885727555</v>
       </c>
     </row>
     <row r="573">
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>0.3287149912346325</v>
+        <v>0.3372435988825698</v>
       </c>
     </row>
     <row r="574">
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>0.4096488285825295</v>
+        <v>0.4083848545287074</v>
       </c>
     </row>
     <row r="575">
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>0.4172434327820552</v>
+        <v>0.4185759757448838</v>
       </c>
     </row>
     <row r="576">
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>0.8365847344431251</v>
+        <v>0.806784505029676</v>
       </c>
     </row>
     <row r="577">
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>0.3978636530592911</v>
+        <v>0.4440514761895277</v>
       </c>
     </row>
     <row r="578">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>0.3186372141484197</v>
+        <v>0.3413275462638607</v>
       </c>
     </row>
     <row r="579">
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>0.6869096890588307</v>
+        <v>0.7028194336671286</v>
       </c>
     </row>
     <row r="580">
@@ -7958,20 +7958,20 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>0.4504426607080935</v>
+        <v>0.4532742829632901</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-Apache-Kafka-Interview-Questions-and-Answers-2022-TechGeekNxt-_full.txt</t>
+          <t>txtfiles\category_1_folder\Subsecond deployment and startup of Apache Camel applications Red Hat Developer_full.txt</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>0.3664112775406491</v>
+        <v>0.2957472232002177</v>
       </c>
     </row>
     <row r="582">
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>0.3112601036909216</v>
+        <v>0.5002135700765631</v>
       </c>
     </row>
     <row r="583">
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>0.309448427121335</v>
+        <v>0.3152309444848575</v>
       </c>
     </row>
     <row r="584">
@@ -8010,7 +8010,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>0.6256421216813893</v>
+        <v>0.6478835319289784</v>
       </c>
     </row>
     <row r="585">
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>0.3608169916251019</v>
+        <v>0.336287723796985</v>
       </c>
     </row>
     <row r="586">
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0.4406508549820897</v>
+        <v>0.4419119827414743</v>
       </c>
     </row>
     <row r="587">
@@ -8049,7 +8049,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>0.3559964130096111</v>
+        <v>0.344819300923413</v>
       </c>
     </row>
     <row r="588">
@@ -8062,12 +8062,12 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>0.3661781681842687</v>
+        <v>0.3804947973165279</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>0.3125786458133633</v>
+        <v>0.3236514588968523</v>
       </c>
     </row>
     <row r="590">
@@ -8088,12 +8088,12 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>0.3546493922152004</v>
+        <v>0.3655180742216463</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -8101,12 +8101,12 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0.2748779921589818</v>
+        <v>0.2525578421781849</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>0.1942096557835094</v>
+        <v>0.1899756386187718</v>
       </c>
     </row>
     <row r="593">
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>0.5724045451329419</v>
+        <v>0.5709404510159825</v>
       </c>
     </row>
     <row r="594">
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>0.4926835253971726</v>
+        <v>0.4838664514224212</v>
       </c>
     </row>
     <row r="595">
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>0.2989829641566212</v>
+        <v>0.3019606584950321</v>
       </c>
     </row>
     <row r="596">
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>0.6050285772600767</v>
+        <v>0.5630298287516906</v>
       </c>
     </row>
     <row r="597">
@@ -8179,7 +8179,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>0.3754680365157348</v>
+        <v>0.3990739100545169</v>
       </c>
     </row>
     <row r="598">
@@ -8192,85 +8192,85 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>0.6603195193389162</v>
+        <v>0.6641953330007192</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Realtime-Django-Part-5-Build-a-Chat-application-RabbitMQ-and-uWSGI-websockets-uWSGI-WebSockets_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Kafka-Advantages-and-Disadvantages-javatpoint_full.txt</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>0.3666711568922703</v>
+        <v>0.2757534739414391</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Kafka-Advantages-and-Disadvantages-javatpoint_full.txt</t>
+          <t>txtfiles\category_1_folder\Designing-a-Modern-Big-Data-Streaming-Architecture-at-Scale-Part-One-Snowflake-Blog_full.txt</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>0.2918071879995078</v>
+        <v>0.2903044855688374</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Designing-a-Modern-Big-Data-Streaming-Architecture-at-Scale-Part-One-Snowflake-Blog_full.txt</t>
+          <t>txtfiles\category_1_folder\Go-Is-the-encodingjson-Package-Really-Slow-by-Vincent-Blanchon-A-Journey-With-Go-Medium_full.txt</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>0.2855607593877</v>
+        <v>0.2269418782799056</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Go-Is-the-encodingjson-Package-Really-Slow-by-Vincent-Blanchon-A-Journey-With-Go-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-7-Best-Log-Aggregator-and-Management-Tools-TekTools_full.txt</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>0.2294349411319957</v>
+        <v>0.6000752824328036</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-7-Best-Log-Aggregator-and-Management-Tools-TekTools_full.txt</t>
+          <t>txtfiles\category_1_folder\Decode-an-OkHttp-JSON-Response-Baeldung_full.txt</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>0.5840291261821657</v>
+        <v>0.6210459691081139</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Decode-an-OkHttp-JSON-Response-Baeldung_full.txt</t>
+          <t>txtfiles\category_1_folder\Kafka-with-Java-Build-a-Secure-Scalable-Messaging-App-Okta-Developer_full.txt</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>0.6183162337373733</v>
+        <v>0.5700267499002694</v>
       </c>
     </row>
     <row r="605">
@@ -8279,63 +8279,63 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Kafka-with-Java-Build-a-Secure-Scalable-Messaging-App-Okta-Developer_full.txt</t>
+          <t>txtfiles\category_1_folder\JSON-Parser-with-ANTLR4-and-Eclipse-Tutorial-Academy_full.txt</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>0.441437605156473</v>
+        <v>0.7203153113990372</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\JSON-Parser-with-ANTLR4-and-Eclipse-Tutorial-Academy_full.txt</t>
+          <t>txtfiles\category_1_folder\-What-are-Microservices-Code-Examples-Tutorials-More-_full.txt</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>0.7472613769543619</v>
+        <v>0.3188435865587265</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\-What-are-Microservices-Code-Examples-Tutorials-More-_full.txt</t>
+          <t>txtfiles\category_1_folder\Hadoop-Storm-Samza-Spark-and-Flink-Big-Data-Frameworks-Compared-DigitalOcean_full.txt</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>0.4410562306534061</v>
+        <v>0.588497529439411</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Hadoop-Storm-Samza-Spark-and-Flink-Big-Data-Frameworks-Compared-DigitalOcean_full.txt</t>
+          <t>txtfiles\category_1_folder\Exposing-asynchronous-communication-through-a-synchronous-REST-API-with-Spring-5-Trifork-Blog_full.txt</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>0.5765794523391446</v>
+        <v>0.2613360162387642</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Exposing-asynchronous-communication-through-a-synchronous-REST-API-with-Spring-5-Trifork-Blog_full.txt</t>
+          <t>txtfiles\category_1_folder\Difference-between-RabbitMQ-Kafka-by-Rinu-Gour-Medium_full.txt</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>0.3158448574108494</v>
+        <v>0.3141810942114704</v>
       </c>
     </row>
     <row r="610">
@@ -8344,37 +8344,37 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Difference-between-RabbitMQ-Kafka-by-Rinu-Gour-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Comparing-Apache-Kafka-Amazon-Kinesis-Microsoft-Event-Hubs-and-Google-PubSub_full.txt</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>0.3276933685678585</v>
+        <v>0.5651581935510437</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Comparing-Apache-Kafka-Amazon-Kinesis-Microsoft-Event-Hubs-and-Google-PubSub_full.txt</t>
+          <t>txtfiles\category_1_folder\ActiveMQ-vs-Kafka-Learn-the-Top-10-Differences-Between_full.txt</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>0.5838793575789897</v>
+        <v>0.8467395459555019</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\ActiveMQ-vs-Kafka-Learn-the-Top-10-Differences-Between_full.txt</t>
+          <t>txtfiles\category_1_folder\Middleware-technology-for-integration-Open-Source-ESB-MuleSoft_full.txt</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>0.8480467393804235</v>
+        <v>0.4983580338932929</v>
       </c>
     </row>
     <row r="613">
@@ -8383,37 +8383,37 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Middleware-technology-for-integration-Open-Source-ESB-MuleSoft_full.txt</t>
+          <t>txtfiles\category_1_folder\Eckerson-Group_full.txt</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>0.4753789819697584</v>
+        <v>0.3786403114534894</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Eckerson-Group_full.txt</t>
+          <t>txtfiles\category_1_folder\Evaluating-Message-Brokers-Kafka-vs-Kinesis-vs-SQS-DZone-Big-Data_full.txt</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>0.3764050160739857</v>
+        <v>0.464577158578553</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Evaluating-Message-Brokers-Kafka-vs-Kinesis-vs-SQS-DZone-Big-Data_full.txt</t>
+          <t>txtfiles\category_1_folder\Read-This-Before-Converting-Your-Chatbot-To-A-Voicebot-by-Cobus-Greyling-Medium_full.txt</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>0.4816411391886903</v>
+        <v>0.2488892689692695</v>
       </c>
     </row>
     <row r="616">
@@ -8422,427 +8422,427 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Read-This-Before-Converting-Your-Chatbot-To-A-Voicebot-by-Cobus-Greyling-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Was-ist-ein-Message-Broker-Mehr-Wissen_full.txt</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>0.2903599573507366</v>
+        <v>0.3836384745263245</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Was-ist-ein-Message-Broker-Mehr-Wissen_full.txt</t>
+          <t>txtfiles\category_1_folder\Kafka-Queuing-Kafka-as-a-Messaging-System-DZone-Integration_full.txt</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>0.3660771423340052</v>
+        <v>0.438481535714246</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Kafka-Queuing-Kafka-as-a-Messaging-System-DZone-Integration_full.txt</t>
+          <t>txtfiles\category_1_folder\Best-Stock-Market-APIs-in-2020_full.txt</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>0.3802199079222402</v>
+        <v>0.4043665692613809</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Best-Stock-Market-APIs-in-2020_full.txt</t>
+          <t>txtfiles\category_1_folder\How-to-break-a-Monolith-into-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>0.4084215312651093</v>
+        <v>0.7616929504641019</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\How-to-break-a-Monolith-into-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\Three-useful-tools-for-big-data-log-analysis-TechRepublic_full.txt</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>0.7766202649061683</v>
+        <v>0.4063004110351754</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Three-useful-tools-for-big-data-log-analysis-TechRepublic_full.txt</t>
+          <t>txtfiles\category_1_folder\When to use RabbitMQ or Apache Kafka - CloudAMQP_full.txt</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>0.4410307476144006</v>
+        <v>0.4301544654185317</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\When to use RabbitMQ or Apache Kafka - CloudAMQP_full.txt</t>
+          <t>txtfiles\category_1_folder\ETL &amp; Data Integration Improving Analytics &amp; Data Quality_full.txt</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>0.465827534796548</v>
+        <v>0.3999696825814503</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\ETL &amp; Data Integration Improving Analytics &amp; Data Quality_full.txt</t>
+          <t>txtfiles\category_1_folder\What-is-Loose-Coupling-in-REST-APIs-DreamFactory-Software-Blog_full.txt</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>0.4048532808476779</v>
+        <v>0.5095634705281038</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Web-Application-Architecture-Principles-That-You-Cannot-Skip-Unified_full.txt</t>
+          <t>txtfiles\category_1_folder\Best-JSON-Library-for-Java_full.txt</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>0.3980456471152502</v>
+        <v>0.5605254499104342</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Best-JSON-Library-for-Java_full.txt</t>
+          <t>txtfiles\category_1_folder\11-of-the-Leading-Open-Source-SIEM-Tools-Logzio_full.txt</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>0.4641832485023939</v>
+        <v>0.3509458578382764</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\11-of-the-Leading-Open-Source-SIEM-Tools-Logzio_full.txt</t>
+          <t>txtfiles\category_1_folder\A-Comprehensive-Analysis-Apache-Kafka-_full.txt</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>0.3319573216331956</v>
+        <v>0.4653373430072122</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\A-Comprehensive-Analysis-Apache-Kafka-_full.txt</t>
+          <t>txtfiles\category_1_folder\From-ECommerce-Platforms-to-Microservices-OmniCommerce-DZone-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>0.4768516658478906</v>
+        <v>0.4339106652928847</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\From-ECommerce-Platforms-to-Microservices-OmniCommerce-DZone-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\-Real-Time-Stream-Processing-in-Big-Data-Platform-The-Digital-Transformation-People-_full.txt</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>0.4570538289154245</v>
+        <v>0.3985775057436302</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\-Real-Time-Stream-Processing-in-Big-Data-Platform-The-Digital-Transformation-People-_full.txt</t>
+          <t>txtfiles\category_1_folder\2019-ETL-Tools-Comparison-Alooma_full.txt</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>0.4032793268007176</v>
+        <v>0.4548317614356391</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\2019-ETL-Tools-Comparison-Alooma_full.txt</t>
+          <t>txtfiles\category_1_folder\A-Web-API-Design-Methodology_full.txt</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>0.4629066593878323</v>
+        <v>0.3921085552640842</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\A-Web-API-Design-Methodology_full.txt</t>
+          <t>txtfiles\category_1_folder\15-BEST-Data-Integration-Tools-Open-Source-Paid-in-2022_full.txt</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>0.4653936398641454</v>
+        <v>0.5427949094381638</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\15-BEST-Data-Integration-Tools-Open-Source-Paid-in-2022_full.txt</t>
+          <t>txtfiles\category_1_folder\5 core components of microservices architecture_full.txt</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>0.5319704854840072</v>
+        <v>0.3492885909092606</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\5 core components of microservices architecture_full.txt</t>
+          <t>txtfiles\category_1_folder\20-Useful-Libraries-Java-Programmers-Should-Know-DZone-Java_full.txt</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0.3511641120315399</v>
+        <v>0.3319795000101199</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\20-Useful-Libraries-Java-Programmers-Should-Know-DZone-Java_full.txt</t>
+          <t>txtfiles\category_1_folder\JSON-Processing-in-Java-EE-7-Baeldung_full.txt</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>0.441789586829925</v>
+        <v>0.7339952181508147</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\JSON-Processing-in-Java-EE-7-Baeldung_full.txt</t>
+          <t>txtfiles\category_1_folder\REST-API-Best-Practices-Design-Examples-From-Java-and-Spring-Web-Services-DZone-Integration_full.txt</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>0.7573433637925961</v>
+        <v>0.3316405200274271</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\REST-API-Best-Practices-Design-Examples-From-Java-and-Spring-Web-Services-DZone-Integration_full.txt</t>
+          <t>txtfiles\category_1_folder\Camel-and-RabbitMQ_full.txt</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>0.3674925566618414</v>
+        <v>0.4693244314209458</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Camel-and-RabbitMQ_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Kafka-vs-Integration-Middleware-MQ-ETL-ESB-DZone-Integration_full.txt</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>0.4935353400524992</v>
+        <v>0.3632611148147691</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Kafka-vs-Integration-Middleware-MQ-ETL-ESB-DZone-Integration_full.txt</t>
+          <t>txtfiles\category_1_folder\RealTime-Process-Monitoring-Software-Sartorius_full.txt</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>0.3552316977297548</v>
+        <v>0.5406757911442082</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\RealTime-Process-Monitoring-Software-Sartorius_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Camel-Deployment-Modes-DZone-Integration_full.txt</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>0.5759773528567049</v>
+        <v>0.4584671251935807</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Camel-Deployment-Modes-DZone-Integration_full.txt</t>
+          <t>txtfiles\category_1_folder\RabbitMQ vs Kafka - Which Messaging System is Better VMware Tanzu Developer Center_full.txt</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>0.5014352143598541</v>
+        <v>0.4418966990315069</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\RabbitMQ vs Kafka - Which Messaging System is Better VMware Tanzu Developer Center_full.txt</t>
+          <t>txtfiles\category_1_folder\Adapters-for-SAP-Cloud-Platform-Integration-Integration-with-MS-Dynamics-CRM-and-RabbitMQ-SAP-Blogs_full.txt</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>0.4459201153760713</v>
+        <v>0.4260813792051827</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Adapters-for-SAP-Cloud-Platform-Integration-Integration-with-MS-Dynamics-CRM-and-RabbitMQ-SAP-Blogs_full.txt</t>
+          <t>txtfiles\category_1_folder\How-to-process-realtime-data-with-Apache-tools-Opensourcecom_full.txt</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>0.3845587399382708</v>
+        <v>0.2045492675144878</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\How-to-process-realtime-data-with-Apache-tools-Opensourcecom_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Camel-with-Spring-Boot-Baeldung_full.txt</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>0.20280428060122</v>
+        <v>0.4211108072742483</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Camel-with-Spring-Boot-Baeldung_full.txt</t>
+          <t>txtfiles\category_1_folder\10-Best-Big-Data-Analytics-Tools-for-2022-With-Uses-Limitations-DataFlair_full.txt</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>0.5834598982451704</v>
+        <v>0.3333208789722202</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\10-Best-Big-Data-Analytics-Tools-for-2022-With-Uses-Limitations-DataFlair_full.txt</t>
+          <t>txtfiles\category_1_folder\The-Principles-of-Planning-and-Implementing-Microservices-by-Lior-Shalom-The-Startup-Medium_full.txt</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>0.3252740029559261</v>
+        <v>0.2318211183348412</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\The-Principles-of-Planning-and-Implementing-Microservices-by-Lior-Shalom-The-Startup-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Plugin-Architectures-With-Layrry-and-the-Java-Module-System-Gunnar-Morling_full.txt</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>0.2332592063935456</v>
+        <v>0.2917745861448487</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Plugin-Architectures-With-Layrry-and-the-Java-Module-System-Gunnar-Morling_full.txt</t>
+          <t>txtfiles\category_1_folder\How-to-Use-the-Apache-Camel-Framework-for-Message-Processing-in-SAP_full.txt</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>0.3229652910533742</v>
+        <v>0.389133026241515</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\How-to-Use-the-Apache-Camel-Framework-for-Message-Processing-in-SAP_full.txt</t>
+          <t>txtfiles\category_1_folder\Middleware – Cakebox Solutions_full.txt</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>0.3337160214683196</v>
+        <v>0.4903283216934065</v>
       </c>
     </row>
     <row r="649">
@@ -8851,24 +8851,24 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Middleware – Cakebox Solutions_full.txt</t>
+          <t>txtfiles\category_1_folder\Informatica-vs-StreamSets-vs-Stitch-Compare-features-pricing-services-and-more-Stitch_full.txt</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>0.4905800860223424</v>
+        <v>0.4825018046677239</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Informatica-vs-StreamSets-vs-Stitch-Compare-features-pricing-services-and-more-Stitch_full.txt</t>
+          <t>txtfiles\category_1_folder\Building a realtime analytics dashboard for an Express application_full.txt</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>0.4722131386136187</v>
+        <v>0.4687508955430482</v>
       </c>
     </row>
     <row r="651">
@@ -8877,362 +8877,362 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Building a realtime analytics dashboard for an Express application_full.txt</t>
+          <t>txtfiles\category_1_folder\How-to-Speed-Up-JSON-Encoding-and-Decoding-in-Golang_full.txt</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>0.5583356269796887</v>
+        <v>0.4099793036857062</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\How-to-Speed-Up-JSON-Encoding-and-Decoding-in-Golang_full.txt</t>
+          <t>txtfiles\category_1_folder\Persistence Hub_full.txt</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>0.4041196870329258</v>
+        <v>0.3116843804316296</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Persistence Hub_full.txt</t>
+          <t>txtfiles\category_1_folder\Service-Decomposition-Arcitura-Patterns_full.txt</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>0.3193425150673953</v>
+        <v>0.4788838439198224</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Scraping Nasdaq news using Python - Datahut_full.txt</t>
+          <t>txtfiles\category_1_folder\Integration-Patterns-With-Apache-Camel-Baeldung_full.txt</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>0.4901676807131609</v>
+        <v>0.4332673684889848</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Integration-Patterns-With-Apache-Camel-Baeldung_full.txt</t>
+          <t>txtfiles\category_1_folder\Everything-you-need-to-know-about-Apache-Kafka-by-Aman-Kumar-Soni-Medium_full.txt</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>0.554261285586402</v>
+        <v>0.4021631797288868</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Everything-you-need-to-know-about-Apache-Kafka-by-Aman-Kumar-Soni-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Design-Patterns-for-Microservices-DZone-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>0.4251132996694144</v>
+        <v>0.5580583611721832</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Design-Patterns-for-Microservices-DZone-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\SL-Announces-Monitoring-as-a-Service-for-Dell-Boomi-with-RTView-Cloud-for-Middleware-Monitoring_full.txt</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0.5697232188367745</v>
+        <v>0.4745401708002114</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Routing-Topologies-for-Performance-and-Scalability-with-RabbitMQ_full.txt</t>
+          <t>txtfiles\category_1_folder\Build-a-Spring-Boot-Application-Using-Java-Modules-Okta-Developer_full.txt</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>0.3725094924634357</v>
+        <v>0.615324636670379</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Build-a-Spring-Boot-Application-Using-Java-Modules-Okta-Developer_full.txt</t>
+          <t>txtfiles\category_1_folder\ActiveMQ-vs-RabbitMQ-Key-Features-and-Benefits-OpenLogic-by-Perforce_full.txt</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>0.6668777382582055</v>
+        <v>0.4559332536994788</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\ActiveMQ-vs-RabbitMQ-Key-Features-and-Benefits-OpenLogic-by-Perforce_full.txt</t>
+          <t>txtfiles\category_1_folder\What-is-ETL-Software-in-2022-Reviews-Features-Pricing-Comparison-PAT-RESEARCH-B2B-Reviews-Buying-Guides-Best-Practices_full.txt</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>0.4207181305832141</v>
+        <v>0.9036980196331249</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-is-ETL-Software-in-2022-Reviews-Features-Pricing-Comparison-PAT-RESEARCH-B2B-Reviews-Buying-Guides-Best-Practices_full.txt</t>
+          <t>txtfiles\category_1_folder\Benchmarking-Kafka-Performance-Part-1-Write-Throughput-by-Aiven-HackerNooncom-Medium_full.txt</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>0.8983699655125587</v>
+        <v>0.6185038618163983</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Benchmarking-Kafka-Performance-Part-1-Write-Throughput-by-Aiven-HackerNooncom-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\RabbitMQ-and-Message-Brokers-What-is-RabbitMQ-Fasthosts_full.txt</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>0.6559801780917118</v>
+        <v>0.2025586567482532</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\RabbitMQ-and-Message-Brokers-What-is-RabbitMQ-Fasthosts_full.txt</t>
+          <t>txtfiles\category_1_folder\Follow these 10 fundamental microservices design principles_full.txt</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>0.1945059473846212</v>
+        <v>0.5370088547839187</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Follow these 10 fundamental microservices design principles_full.txt</t>
+          <t>txtfiles\category_1_folder\Pulsar-vs-Kafka-Comparison-and-Myths-Explored-Kai-Waehner_full.txt</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>0.5381151799007502</v>
+        <v>0.4479015927906745</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Pulsar-vs-Kafka-Comparison-and-Myths-Explored-Kai-Waehner_full.txt</t>
+          <t>txtfiles\category_1_folder\How-to-choose-a-Message-Queue-Im-working-in-a-team-which-is-by-Antoine-Duprat-Linagora-Engineering-Medium_full.txt</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>0.4478471140435822</v>
+        <v>0.2755711396067858</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\How-to-choose-a-Message-Queue-Im-working-in-a-team-which-is-by-Antoine-Duprat-Linagora-Engineering-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Comparing-Apache-Spark-Storm-Flink-and-Samza-stream-processing-engines-Part-1_full.txt</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>0.2582720507180682</v>
+        <v>0.3711135981290507</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Comparing-Apache-Spark-Storm-Flink-and-Samza-stream-processing-engines-Part-1_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-15-Big-Data-Tools-Big-Data-Analytics-Tools-in-2022_full.txt</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>0.4504261530979984</v>
+        <v>0.6025874736582537</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-13-Free-and-Open-Source-ETL-Tools-for-Data-Integration_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Kafka-in-a-nutshell-This-is-first-in-series-of-articles-by-Vajo-Lukic-Webstep-Medium_full.txt</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>0.5069831142131175</v>
+        <v>0.4604442794323213</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Kafka-in-a-nutshell-This-is-first-in-series-of-articles-by-Vajo-Lukic-Webstep-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Best-6-stock-market-APIs-for-2022_full.txt</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>0.4878854296172674</v>
+        <v>0.4666965255491801</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Best-6-stock-market-APIs-for-2022_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Flume-Architecture-Working-and-Advantages-of-Apache-Flume_full.txt</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>0.4732454252166165</v>
+        <v>0.3820240296757104</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Flume-Architecture-Working-and-Advantages-of-Apache-Flume_full.txt</t>
+          <t>txtfiles\category_1_folder\What-Is-Data-Streaming-A-Data-Architects-Guide-DATAVERSITY_full.txt</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>0.3997142353670712</v>
+        <v>0.4380760223894099</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-is-Loose-Coupling-in-REST-APIs-DreamFactory-Software-Blog_full.txt</t>
+          <t>txtfiles\category_1_folder\3-Middleware-Software-Tools-Comparison-and-Review_full.txt</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>0.5064966817375348</v>
+        <v>0.3218088825797017</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\3-Middleware-Software-Tools-Comparison-and-Review_full.txt</t>
+          <t>txtfiles\category_1_folder\Go-vs-Java-JSON-serialization-and-deserialization-by-Alin-Velican-Medium_full.txt</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0.3165290414153001</v>
+        <v>0.3571521563295583</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Go-vs-Java-JSON-serialization-and-deserialization-by-Alin-Velican-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Building-a-Telegram-Bot-Powered-by-Kafka-and-ksqlDB_full.txt</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>0.3557150104582726</v>
+        <v>0.378108359553728</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Building-a-Telegram-Bot-Powered-by-Kafka-and-ksqlDB_full.txt</t>
+          <t>txtfiles\category_1_folder\A-Gentle-Introduction-to-Stream-Processing-by-Srinath-Perera-Stream-Processing-Medium_full.txt</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>0.2854559861612165</v>
+        <v>0.3284733809718506</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\A-Gentle-Introduction-to-Stream-Processing-by-Srinath-Perera-Stream-Processing-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Synchronous vs Asynchronous by Example by Robert Maidla Level Up Coding_full.txt</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>0.3040285860004243</v>
+        <v>0.3375794041768167</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Subsecond deployment and startup of Apache Camel applications Red Hat Developer_full.txt</t>
+          <t>txtfiles\category_1_folder\RESTful API Patterns. There are so many ways to write an API… by Alessandro Ferlin Level Up Coding_full.txt</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>0.3898106350096894</v>
+        <v>0.5567068824646093</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\RESTful API Patterns. There are so many ways to write an API… by Alessandro Ferlin Level Up Coding_full.txt</t>
+          <t>txtfiles\category_1_folder\Service-Decomposition-SOA-Design-Patterns-Service-Governance-Patterns-InformIT_full.txt</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>0.4054875796999028</v>
+        <v>0.6519210324606101</v>
       </c>
     </row>
     <row r="679">
@@ -9241,180 +9241,180 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Service-Decomposition-Arcitura-Patterns_full.txt</t>
+          <t>txtfiles\category_1_folder\Introduction-to-Message-Brokers-Part-1-Apache-Kafka-vs-RabbitMQ-DZone-Big-Data_full.txt</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>0.3088166142463338</v>
+        <v>0.4113891830905058</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Introduction-to-Message-Brokers-Part-1-Apache-Kafka-vs-RabbitMQ-DZone-Big-Data_full.txt</t>
+          <t>txtfiles\category_1_folder\API-Design-Patterns-and-Best-Practices-API-Guide_full.txt</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>0.3834821982407478</v>
+        <v>0.3427897122443555</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\API-Design-Patterns-and-Best-Practices-API-Guide_full.txt</t>
+          <t>txtfiles\category_1_folder\A-Fast-Flexible-JSON-Library-for-Java-DZone-Java_full.txt</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>0.3418003264856584</v>
+        <v>0.2795902459895455</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\A-Fast-Flexible-JSON-Library-for-Java-DZone-Java_full.txt</t>
+          <t>txtfiles\category_1_folder\Java-JSON-Parsers-or-How-to-Parse-JSON-in-Java-Java-Programming-Tutorials_full.txt</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>0.2923924879740484</v>
+        <v>0.7940901414057727</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Java-JSON-Parsers-or-How-to-Parse-JSON-in-Java-Java-Programming-Tutorials_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache Kafka vs. Enterprise Service Bus (ESB) Confluent DE_full.txt</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>0.8131713423378227</v>
+        <v>0.3672431466520003</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache Kafka vs. Enterprise Service Bus (ESB) Confluent DE_full.txt</t>
+          <t>txtfiles\category_1_folder\Everything You Need to Know about Asynchronous Communication and RabbitMQ - CloudAMQP_full.txt</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>0.3646434097987521</v>
+        <v>0.3373179572256543</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Everything You Need to Know about Asynchronous Communication and RabbitMQ - CloudAMQP_full.txt</t>
+          <t>txtfiles\category_1_folder\5 Reasons Why Your Chatbot Needs Natural Language Processing by Mitul Makadia Towards Data Science_full.txt</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>0.3075184508978574</v>
+        <v>0.2897075509404315</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\5 Reasons Why Your Chatbot Needs Natural Language Processing by Mitul Makadia Towards Data Science_full.txt</t>
+          <t>txtfiles\category_1_folder\Go Digital or Go Home - Part 1 of 2_full.txt</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>0.3168909942518461</v>
+        <v>0.4822560638285304</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Go Digital or Go Home - Part 1 of 2_full.txt</t>
+          <t>txtfiles\category_1_folder\Design-Patterns-for-Microservices-Examples-Java-Code-Geeks-2022_full.txt</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>0.4999729410079204</v>
+        <v>0.5431249461912119</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Design-Patterns-for-Microservices-Examples-Java-Code-Geeks-2022_full.txt</t>
+          <t>txtfiles\category_1_folder\What is the relationship between connections and channels in RabbitMQ - CloudAMQP_full.txt</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>0.5352741828728242</v>
+        <v>0.2935403506022127</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\introductiontomessagebrokerspart2activemqvsredispubsubdd9e173e27a5_full.txt</t>
+          <t>txtfiles\category_1_folder\Kafka-Messaging-Systems-Comparison-Pragmatic-Notes_full.txt</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>0.1676109865684399</v>
+        <v>0.2670223406539625</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Kafka-Messaging-Systems-Comparison-Pragmatic-Notes_full.txt</t>
+          <t>txtfiles\category_1_folder\2018-ETL-Tools-Comparison-DZone-Big-Data_full.txt</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>0.2348479708121936</v>
+        <v>0.4139404972167979</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\2018-ETL-Tools-Comparison-DZone-Big-Data_full.txt</t>
+          <t>txtfiles\category_1_folder\Spoilt-for-Choice-Which-Integration-Framework-to-use-Spring-Integration-Mule-ESB-or-Apache-Camel-Kai-Waehner_full.txt</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0.4182949075138482</v>
+        <v>0.6411688430038346</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Some queuing theory throughput, latency and bandwidth RabbitMQ - Blog_full.txt</t>
+          <t>txtfiles\category_1_folder\Internet-of-Things-Middleware_full.txt</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0.7773275865028612</v>
+        <v>0.4587759617033781</v>
       </c>
     </row>
     <row r="693">
@@ -9423,167 +9423,167 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Internet-of-Things-Middleware_full.txt</t>
+          <t>txtfiles\category_1_folder\How To Develop a Chatbot From Scratch by Maruti Techlabs Chatbots Magazine_full.txt</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>0.4459934186990011</v>
+        <v>0.3203879919603867</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\How To Develop a Chatbot From Scratch by Maruti Techlabs Chatbots Magazine_full.txt</t>
+          <t>txtfiles\category_1_folder\Distributed-stream-processing-frameworks-what-they-are-and-how-they-perform-Computer-Science-Blog_full.txt</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>0.3132846595319841</v>
+        <v>0.4913629819932563</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Distributed-stream-processing-frameworks-what-they-are-and-how-they-perform-Computer-Science-Blog_full.txt</t>
+          <t>txtfiles\category_1_folder\Microservice-communication-_full.txt</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>0.488641207426407</v>
+        <v>0.4186102952758439</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Microservice-communication-_full.txt</t>
+          <t>txtfiles\category_1_folder\Performance-and-scalability-techniques-101-Web-application-performance-and-scalability_full.txt</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>0.4317135621139587</v>
+        <v>0.6828453425670743</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Performance-and-scalability-techniques-101-Web-application-performance-and-scalability_full.txt</t>
+          <t>txtfiles\category_1_folder\4-Message-Brokers-You-Need-to-Know-SpringPeople_full.txt</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>0.3967829213738718</v>
+        <v>0.8084803098703491</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\4-Message-Brokers-You-Need-to-Know-SpringPeople_full.txt</t>
+          <t>txtfiles\category_1_folder\Web-Application-Architecture-The-Ultimate-Guide-Intellectsoft-Blog-_full.txt</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>0.8836246021541352</v>
+        <v>0.392701889109119</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Web-Application-Architecture-The-Ultimate-Guide-Intellectsoft-Blog-_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Camel-Transforming-Message-using-Simple-Expression-_full.txt</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>0.4503197336738184</v>
+        <v>0.6392119315365532</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Camel-Transforming-Message-using-Simple-Expression-_full.txt</t>
+          <t>txtfiles\category_1_folder\10-Best-Practices-for-Microservice-Architectures-DZone-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>0.6697009000922231</v>
+        <v>0.3634532576622246</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\10-Best-Practices-for-Microservice-Architectures-DZone-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\Best-Stock-APIs-and-Industry-Landscape-in-2021-by-Patrick-Collins-Medium_full.txt</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>0.361669965648469</v>
+        <v>0.2964340755493703</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Best-Stock-APIs-and-Industry-Landscape-in-2021-by-Patrick-Collins-Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\LooseCoupling-in-a-Microservice-Architecture-_full.txt</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>0.3009372801537267</v>
+        <v>0.5667593683567272</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\LooseCoupling-in-a-Microservice-Architecture-_full.txt</t>
+          <t>txtfiles\category_1_folder\Microservices-with-Spring_full.txt</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>0.568281654711537</v>
+        <v>0.3916920376328801</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Microservices-with-Spring_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-Apache-Kafka-Interview-Questions-and-Answers-2022-TechGeekNxt-_full.txt</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>0.3358831037552412</v>
+        <v>0.3180286820854323</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-9-ETL-Tools-For-Data-Integration-In-2020-Best-ETL-Tools_full.txt</t>
+          <t>txtfiles\category_1_folder\Application-Decomposition-to-Microservice-Dinesh-on-Java_full.txt</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>0.4691533454007539</v>
+        <v>0.6243558380241176</v>
       </c>
     </row>
     <row r="706">
@@ -9592,50 +9592,50 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Application-Decomposition-to-Microservice-Dinesh-on-Java_full.txt</t>
+          <t>txtfiles\category_1_folder\Data-Consistency-in-Microservices-Architecture-DZone-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>0.6364704431012601</v>
+        <v>0.5397826294432332</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Data-Consistency-in-Microservices-Architecture-DZone-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\Part 4 RabbitMQ Exchanges, routing keys and bindings - CloudAMQP_full.txt</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>0.5766782728616333</v>
+        <v>0.8089527856297694</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Part 4 RabbitMQ Exchanges, routing keys and bindings - CloudAMQP_full.txt</t>
+          <t>txtfiles\category_1_folder\Patterns-for-Microservices-Sync-vs-Async-DZone-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>0.74779388272063</v>
+        <v>0.4722443704507939</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Patterns-for-Microservices-Sync-vs-Async-DZone-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\The current data and event ecosystem by Aiven Medium_full.txt</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>0.5241835522441218</v>
+        <v>0.2370071239630801</v>
       </c>
     </row>
     <row r="710">
@@ -9644,76 +9644,76 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\The Hardest Part About Microservices Your Data Red Hat Developer_full.txt</t>
+          <t>txtfiles\category_1_folder\Web-Application-Architecture-Principles-That-You-Cannot-Skip-Unified_full.txt</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>0.590044634245645</v>
+        <v>0.355345612882681</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Web-API-Design-5-Best-Practices-to-Know-Toptal_full.txt</t>
+          <t>txtfiles\category_1_folder\Developing-Microservices-with-Java-LeanIX_full.txt</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>0.4635534618597693</v>
+        <v>0.3082206016040104</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Developing-Microservices-with-Java-LeanIX_full.txt</t>
+          <t>txtfiles\category_1_folder\Evaluating-message-brokers-Amazon-SQS-Neil-Brown_full.txt</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>0.3781904018223133</v>
+        <v>0.5374389502402203</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Evaluating-message-brokers-Amazon-SQS-Neil-Brown_full.txt</t>
+          <t>txtfiles\category_1_folder\Jackson-vs-Gson-vs-JSONB-vs-JSONP-vs-orgJSON-vs-Jsonpath-Java-JSON-libraries-features-comparison-Its-All-Binary-Coding-Posts-Examples-Projects-More_full.txt</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>0.5763680048573542</v>
+        <v>0.9436777933175783</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Jackson-vs-Gson-vs-JSONB-vs-JSONP-vs-orgJSON-vs-Jsonpath-Java-JSON-libraries-features-comparison-Its-All-Binary-Coding-Posts-Examples-Projects-More_full.txt</t>
+          <t>txtfiles\category_1_folder\Apache-Kafka-vs-Integration-Middleware-MQ-ETL-ESB-A-Comparison_full.txt</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>0.9136005153843118</v>
+        <v>0.7005808499057093</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Apache-Kafka-vs-Integration-Middleware-MQ-ETL-ESB-A-Comparison_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-13-Free-and-Open-Source-ETL-Tools-for-Data-Integration_full.txt</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>0.7197185506968048</v>
+        <v>0.5126811063477573</v>
       </c>
     </row>
     <row r="716">
@@ -9722,115 +9722,115 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-13-Best-Big-Data-Companies-of-2022_full.txt</t>
+          <t>txtfiles\category_1_folder\Best Dashboard Software and Tools 2022 Comparison Guide_full.txt</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>0.6409265895377004</v>
+        <v>0.5743155167320959</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Best Dashboard Software and Tools 2022 Comparison Guide_full.txt</t>
+          <t>txtfiles\category_1_folder\Advanced-Architecture-for-ASPNET-Core-Web-API_full.txt</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>0.5667629950296285</v>
+        <v>0.4062157323800221</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Advanced-Architecture-for-ASPNET-Core-Web-API_full.txt</t>
+          <t>txtfiles\category_1_folder\Kafka-vs-RabbitMQ-Why-Use-Kafka-Seattle-Data-Guy_full.txt</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>0.3791326515593013</v>
+        <v>0.2852488528050175</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Kafka-vs-RabbitMQ-Why-Use-Kafka-Seattle-Data-Guy_full.txt</t>
+          <t>txtfiles\category_1_folder\Java-JSON-javatpoint_full.txt</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>0.3307001042361633</v>
+        <v>0.468350691772202</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Java-JSON-javatpoint_full.txt</t>
+          <t>txtfiles\category_1_folder\What-Is-Data-Streaming-DZone-Big-Data_full.txt</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>0.3894201286540936</v>
+        <v>0.3023397288097702</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-Is-Data-Streaming-A-Data-Architects-Guide-DATAVERSITY_full.txt</t>
+          <t>txtfiles\category_1_folder\An-Overview-of-the-Kafka-Distributed-Message-System-Part-1-DZone-Big-Data_full.txt</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>0.4458993608433456</v>
+        <v>0.3371956852346792</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\An-Overview-of-the-Kafka-Distributed-Message-System-Part-1-DZone-Big-Data_full.txt</t>
+          <t>txtfiles\category_1_folder\9-Fundamentals-of-a-Successful-Microservice-Design-DZone-Microservices_full.txt</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>0.2856625916797015</v>
+        <v>0.5079070172166766</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\9-Fundamentals-of-a-Successful-Microservice-Design-DZone-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\Overview On ETL Tools And Processes 2021 - Data Virtuality Pipes_full.txt</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>0.5541654871294031</v>
+        <v>0.4894283479128483</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Overview On ETL Tools And Processes 2021 - Data Virtuality Pipes_full.txt</t>
+          <t>txtfiles\category_1_folder\Top-Ten-Differences-Between-ActiveMQ-and-Amazon-SQS-The-Dulin-Report_full.txt</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>0.4930134414290249</v>
+        <v>0.4313098766861477</v>
       </c>
     </row>
     <row r="725">
@@ -9839,11 +9839,11 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Top-ETL-Tools-for-2021And-The-Case-For-Saying-No-To-ETL_full.txt</t>
+          <t>txtfiles\category_1_folder\Why-Loggly-Loves-Apache-Kafka-Loggly_full.txt</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>0.441648845209348</v>
+        <v>0.252900932036593</v>
       </c>
     </row>
     <row r="726">
@@ -9852,141 +9852,141 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Why-Loggly-Loves-Apache-Kafka-Loggly_full.txt</t>
+          <t>txtfiles\category_1_folder\Benefits-of-Data-Collection-to-Improve-Business-Workflow_full.txt</t>
         </is>
       </c>
       <c r="C726" t="n">
-        <v>0.2517428978100397</v>
+        <v>0.5107948854902498</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Benefits-of-Data-Collection-to-Improve-Business-Workflow_full.txt</t>
+          <t>txtfiles\category_1_folder\A-breakdown-of-chatbot-architecture-and-how-it-works-EBM-Enterprise-Bot-Manager_full.txt</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>0.5243674965895956</v>
+        <v>0.2434280993423826</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\A-breakdown-of-chatbot-architecture-and-how-it-works-EBM-Enterprise-Bot-Manager_full.txt</t>
+          <t>txtfiles\category_1_folder\Performance-comparison-of-several-common-JSON-libraries-in-Java-Programmer-Sought_full.txt</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>0.255206201690667</v>
+        <v>0.7162422403817518</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Performance-comparison-of-several-common-JSON-libraries-in-Java-Programmer-Sought_full.txt</t>
+          <t>txtfiles\category_1_folder\Microservice-architecture-design-5-key-elements_full.txt</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>0.6874355886471901</v>
+        <v>0.5043461030520389</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Microservice-architecture-design-5-key-elements_full.txt</t>
+          <t>txtfiles\category_1_folder\What is synchronous_asynchronous API - Definition from WhatIs.com_full.txt</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>0.5327546380083238</v>
+        <v>0.2845808838797941</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What is streaming data architecture - Definition from WhatIs.com_full.txt</t>
+          <t>txtfiles\category_1_folder\Get-the-full-Java-EE-8-implementation-in-Open-Liberty-18002-OpenLibertyio_full.txt</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>0.350337674400616</v>
+        <v>0.4467943057251281</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Get-the-full-Java-EE-8-implementation-in-Open-Liberty-18002-OpenLibertyio_full.txt</t>
+          <t>txtfiles\category_1_folder\Introduction-to-JSONJava-Baeldung_full.txt</t>
         </is>
       </c>
       <c r="C732" t="n">
-        <v>0.4837177784573024</v>
+        <v>0.8234106479318499</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Introduction-to-JSONJava-Baeldung_full.txt</t>
+          <t>txtfiles\category_1_folder\Realtime-data-streaming-tools-technologiesAn-Overview_full.txt</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>0.8330869308679546</v>
+        <v>0.2879332805519257</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Realtime-data-streaming-tools-technologiesAn-Overview_full.txt</t>
+          <t>txtfiles\category_1_folder\Microservice architecture implementation Learn by example_full.txt</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>0.2901064674891588</v>
+        <v>0.3184721908646761</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Microservice architecture implementation Learn by example_full.txt</t>
+          <t>txtfiles\category_1_folder\8 Open Source Big Data Tools to use in 2018 by Vladimir Fedak Medium_full.txt</t>
         </is>
       </c>
       <c r="C735" t="n">
-        <v>0.3194771337341497</v>
+        <v>0.2313872119589614</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\8 Open Source Big Data Tools to use in 2018 by Vladimir Fedak Medium_full.txt</t>
+          <t>txtfiles\category_1_folder\Realtime-data-processing-with-data-streaming-new-tools-for-a-new-era-InfoWorld_full.txt</t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>0.2438684266668521</v>
+        <v>0.3001424695147754</v>
       </c>
     </row>
     <row r="737">
@@ -9995,128 +9995,115 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Realtime-data-processing-with-data-streaming-new-tools-for-a-new-era-InfoWorld_full.txt</t>
+          <t>txtfiles\category_1_folder\ETL-vs-ELT-and-the-Benefits-of-Data-Transformation-in-the-Cloud_full.txt</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>0.3187615208868215</v>
+        <v>0.5351030816029492</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\ETL-vs-ELT-and-the-Benefits-of-Data-Transformation-in-the-Cloud_full.txt</t>
+          <t>txtfiles\category_1_folder\What-is-Web-Application-Architecture-Components-Models-and-Types_full.txt</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>0.5369047916773955</v>
+        <v>0.4462404822202822</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What-is-Streaming-Analytics-Data-Streaming-and-Stream-Processing-AltexSoft_full.txt</t>
+          <t>txtfiles\category_1_folder\-Parsing-Large-JSON-Files-using-Jackson-Streaming-API-Example-_full.txt</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>0.4628145321043685</v>
+        <v>0.5899463379498129</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\-Parsing-Large-JSON-Files-using-Jackson-Streaming-API-Example-_full.txt</t>
+          <t>txtfiles\category_1_folder\How-to-Organize-CLEAN-ARCHITECTURE-to-Modular-Patterns-in-10-Minutes-HackerNoon_full.txt</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>0.5465405588957363</v>
+        <v>0.5665729823257565</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\How-to-Organize-CLEAN-ARCHITECTURE-to-Modular-Patterns-in-10-Minutes-HackerNoon_full.txt</t>
+          <t>txtfiles\category_1_folder\What-Is-Big-Data-Benefits-of-Big-Data-NetApp_full.txt</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>0.5632438668277502</v>
+        <v>0.4976752925567325</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\What is the relationship between connections and channels in RabbitMQ - CloudAMQP_full.txt</t>
+          <t>txtfiles\category_1_folder\Big-Data-in-Telecoms-means-Better-Service-SQLstream-Streaming-SQL-Analytics-for-Kafka-Kinesis_full.txt</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>0.3349473494611463</v>
+        <v>0.5599560030262165</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Big-Data-in-Telecoms-means-Better-Service-SQLstream-Streaming-SQL-Analytics-for-Kafka-Kinesis_full.txt</t>
+          <t>txtfiles\category_1_folder\Strategies-for-Decomposing-an-Application-into-Services-Manning_full.txt</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>0.5663939058177325</v>
+        <v>0.6567355230628702</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Strategies-for-Decomposing-a-System-into-Microservices_full.txt</t>
+          <t>txtfiles\category_1_folder\Processing-Large-Messages-With-Apache-Kafka-DZone-Big-Data_full.txt</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>0.3744269894821871</v>
+        <v>0.3766589345605872</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>txtfiles\category_1_folder\Processing-Large-Messages-With-Apache-Kafka-DZone-Big-Data_full.txt</t>
+          <t>txtfiles\category_1_folder\User-Stories-Apache-Camel_full.txt</t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>0.3805273035185416</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="n">
-        <v>6</v>
-      </c>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>txtfiles\category_1_folder\UnmarshalConvert-JSON-data-to-JAXBElement-object-Automation-Rhapsody_full.txt</t>
-        </is>
-      </c>
-      <c r="C746" t="n">
-        <v>0.3750994454894109</v>
+        <v>0.3023527643237746</v>
       </c>
     </row>
   </sheetData>
